--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>1.564940711320844</v>
       </c>
-      <c r="BA2">
-        <v>1.564940711320844</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>1.162075383241174</v>
       </c>
-      <c r="BA3">
-        <v>1.162075383241174</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>1.324801310034943</v>
-      </c>
       <c r="C4">
         <v>0.9623985945846414</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>0.9623985945846414</v>
       </c>
-      <c r="BA4">
-        <v>0.9623985945846414</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>1.325042362893598</v>
-      </c>
       <c r="C5">
         <v>-0.2625025240627394</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>-0.2625025240627394</v>
       </c>
-      <c r="BA5">
-        <v>-0.2625025240627394</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>1.325282820799245</v>
-      </c>
-      <c r="C6">
-        <v>0.5533810230800498</v>
-      </c>
       <c r="D6">
         <v>-2.717991563576632</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>-2.717991563576632</v>
       </c>
-      <c r="BA6">
-        <v>-2.717991563576632</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>1.295302013422827</v>
-      </c>
       <c r="D7">
         <v>-0.8018087606025261</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>-0.8018087606025261</v>
       </c>
-      <c r="BA7">
-        <v>-0.8018087606025261</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>1.298615252103602</v>
-      </c>
-      <c r="D8">
-        <v>-0.2187281672125749</v>
-      </c>
       <c r="E8">
         <v>-2.540735588184205</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>-2.540735588184205</v>
       </c>
-      <c r="BA8">
-        <v>-2.540735588184205</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>1.08574792334359</v>
-      </c>
-      <c r="D9">
-        <v>0.143861260631482</v>
-      </c>
       <c r="E9">
         <v>0.4798059474883161</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>0.4798059474883161</v>
       </c>
-      <c r="BA9">
-        <v>0.4798059474883161</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>1.093497250080873</v>
-      </c>
-      <c r="D10">
-        <v>0.325330619473263</v>
-      </c>
-      <c r="E10">
-        <v>0.5403560268265863</v>
-      </c>
       <c r="F10">
         <v>2.996743291460049</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>2.996743291460049</v>
       </c>
-      <c r="BA10">
-        <v>2.996743291460049</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>0.8856258325645787</v>
-      </c>
-      <c r="D11">
-        <v>-0.1389733658260026</v>
-      </c>
-      <c r="E11">
-        <v>0.8468734727585172</v>
-      </c>
       <c r="F11">
         <v>1.766782973262963</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>1.766782973262963</v>
       </c>
-      <c r="BA11">
-        <v>1.766782973262963</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>0.8018278987369833</v>
-      </c>
-      <c r="D12">
-        <v>-0.4197410431098553</v>
-      </c>
-      <c r="E12">
-        <v>0.8558739279972656</v>
-      </c>
-      <c r="F12">
-        <v>1.299999999999969</v>
-      </c>
       <c r="G12">
         <v>1.792707332192279</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>1.792707332192279</v>
       </c>
-      <c r="BA12">
-        <v>1.792707332192279</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>0.8567366083954545</v>
-      </c>
-      <c r="D13">
-        <v>-0.4247752513773382</v>
-      </c>
-      <c r="E13">
-        <v>0.8749726708661569</v>
-      </c>
-      <c r="F13">
-        <v>0.8000000000000256</v>
-      </c>
       <c r="G13">
         <v>1.599999999999994</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>1.599999999999994</v>
       </c>
-      <c r="BA13">
-        <v>1.599999999999994</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>0.9132347728656985</v>
-      </c>
-      <c r="D14">
-        <v>-0.3466752100330048</v>
-      </c>
-      <c r="E14">
-        <v>0.8785736706433624</v>
-      </c>
-      <c r="F14">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="G14">
-        <v>1.299999999999983</v>
-      </c>
       <c r="H14">
         <v>1.983944815439088</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>1.983944815439088</v>
       </c>
-      <c r="BA14">
-        <v>1.983944815439088</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>0.9120449124214851</v>
-      </c>
-      <c r="D15">
-        <v>-0.3067633187130591</v>
-      </c>
-      <c r="E15">
-        <v>0.3561868195724653</v>
-      </c>
-      <c r="F15">
-        <v>0.3410777974875428</v>
-      </c>
-      <c r="G15">
-        <v>1.299999999999969</v>
-      </c>
       <c r="H15">
         <v>1.027205282249909</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>1.027205282249909</v>
       </c>
-      <c r="BA15">
-        <v>1.027205282249909</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>0.887835492621647</v>
-      </c>
-      <c r="D16">
-        <v>-0.3095197752452775</v>
-      </c>
-      <c r="E16">
-        <v>0.1962936373865557</v>
-      </c>
-      <c r="F16">
-        <v>0.2294366655399695</v>
-      </c>
-      <c r="G16">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="H16">
-        <v>1.200000000000003</v>
-      </c>
       <c r="I16">
         <v>1.892417316869597</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>1.892417316869597</v>
       </c>
-      <c r="BA16">
-        <v>1.892417316869597</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.8789556042743516</v>
-      </c>
-      <c r="D17">
-        <v>-0.3223320352805312</v>
-      </c>
-      <c r="E17">
-        <v>0.05687451342616161</v>
-      </c>
-      <c r="F17">
-        <v>0.2062268667777285</v>
-      </c>
-      <c r="G17">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="H17">
-        <v>1.499999999999986</v>
-      </c>
       <c r="I17">
         <v>1.727088565964991</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>1.727088565964991</v>
       </c>
-      <c r="BA17">
-        <v>1.727088565964991</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.8856912297606019</v>
-      </c>
-      <c r="D18">
-        <v>-0.327851439790123</v>
-      </c>
-      <c r="E18">
-        <v>-0.01360086095637897</v>
-      </c>
-      <c r="F18">
-        <v>0.2097467631277099</v>
-      </c>
-      <c r="G18">
-        <v>1.800000000000026</v>
-      </c>
-      <c r="H18">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="I18">
-        <v>1.590915375251328</v>
-      </c>
       <c r="J18">
         <v>0.4000000000000057</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>0.4000000000000057</v>
       </c>
-      <c r="BA18">
-        <v>0.4000000000000057</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.8920335407824644</v>
-      </c>
-      <c r="D19">
-        <v>-0.3268928612960782</v>
-      </c>
-      <c r="E19">
-        <v>-0.0593529650206298</v>
-      </c>
-      <c r="F19">
-        <v>0.2150072433445051</v>
-      </c>
-      <c r="G19">
-        <v>1.360257201166</v>
-      </c>
-      <c r="H19">
-        <v>1.216712875653784</v>
-      </c>
-      <c r="I19">
-        <v>1.703562173521391</v>
-      </c>
       <c r="J19">
         <v>0.5999999999999943</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0.5999999999999943</v>
       </c>
-      <c r="BA19">
-        <v>0.5999999999999943</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.8916596450950012</v>
-      </c>
-      <c r="D20">
-        <v>-0.3248366725230996</v>
-      </c>
-      <c r="E20">
-        <v>-0.08559217876726993</v>
-      </c>
-      <c r="F20">
-        <v>0.2173538876456293</v>
-      </c>
-      <c r="G20">
-        <v>1.089704231618342</v>
-      </c>
-      <c r="H20">
-        <v>0.9867615577085576</v>
-      </c>
-      <c r="I20">
-        <v>1.878254467120129</v>
-      </c>
-      <c r="J20">
-        <v>1.200000000000003</v>
-      </c>
       <c r="K20">
         <v>1.295244683175738</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>1.295244683175738</v>
       </c>
-      <c r="BA20">
-        <v>1.295244683175738</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.1015624846163918</v>
-      </c>
-      <c r="F21">
-        <v>0.2178680100970538</v>
-      </c>
-      <c r="G21">
-        <v>0.9458036535581354</v>
-      </c>
-      <c r="H21">
-        <v>0.8668109788375841</v>
-      </c>
-      <c r="I21">
-        <v>1.966036868385189</v>
-      </c>
-      <c r="J21">
-        <v>1.499999999999986</v>
-      </c>
       <c r="K21">
         <v>0.5000000000000142</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>0.5000000000000142</v>
       </c>
-      <c r="BA21">
-        <v>0.5000000000000142</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.1110048629875813</v>
-      </c>
-      <c r="F22">
-        <v>0.217808276026285</v>
-      </c>
-      <c r="G22">
-        <v>0.8711472255119344</v>
-      </c>
-      <c r="H22">
-        <v>0.8054599311426979</v>
-      </c>
-      <c r="I22">
-        <v>2.006045911410865</v>
-      </c>
-      <c r="J22">
-        <v>1.499999999999986</v>
-      </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.5559676367306805</v>
       </c>
       <c r="L22">
         <v>-0.1007444012410019</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>-0.1007444012410019</v>
       </c>
-      <c r="BA22">
-        <v>-0.1007444012410019</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.1166665273604078</v>
-      </c>
-      <c r="F23">
-        <v>0.2177016465989222</v>
-      </c>
-      <c r="G23">
-        <v>0.8325964498793653</v>
-      </c>
-      <c r="H23">
-        <v>0.7741757073249081</v>
-      </c>
-      <c r="I23">
-        <v>1.653878497285922</v>
-      </c>
-      <c r="J23">
-        <v>1.180674083492919</v>
-      </c>
       <c r="K23">
-        <v>1.600005087957896</v>
+        <v>0.6108054085382778</v>
       </c>
       <c r="L23">
         <v>0.399975276622385</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.399975276622385</v>
       </c>
-      <c r="BA23">
-        <v>0.399975276622385</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.1200382062062217</v>
-      </c>
-      <c r="F24">
-        <v>0.2176524038894943</v>
-      </c>
-      <c r="G24">
-        <v>0.8127076969126097</v>
-      </c>
-      <c r="H24">
-        <v>0.7582307482205783</v>
-      </c>
-      <c r="I24">
-        <v>1.440125977108841</v>
-      </c>
-      <c r="J24">
-        <v>0.9957812902968115</v>
-      </c>
       <c r="K24">
-        <v>1.599999542254579</v>
+        <v>0.6392919275383474</v>
       </c>
       <c r="L24">
-        <v>1.100002624357501</v>
+        <v>0.5276885282724796</v>
       </c>
       <c r="M24">
         <v>2</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>2</v>
       </c>
-      <c r="BA24">
-        <v>2</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.8024486606732945</v>
-      </c>
-      <c r="H25">
-        <v>0.7501045142025503</v>
-      </c>
-      <c r="I25">
-        <v>1.305390714251323</v>
-      </c>
-      <c r="J25">
-        <v>0.9033093574341984</v>
-      </c>
       <c r="K25">
-        <v>1.299997956283505</v>
+        <v>0.6533110149371484</v>
       </c>
       <c r="L25">
-        <v>1.500015302367459</v>
+        <v>0.5768801255079613</v>
       </c>
       <c r="M25">
         <v>1.1</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>1.1</v>
       </c>
-      <c r="BA25">
-        <v>1.1</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.7971570116158058</v>
-      </c>
-      <c r="H26">
-        <v>0.7459630852228092</v>
-      </c>
-      <c r="I26">
-        <v>1.220571847906394</v>
-      </c>
-      <c r="J26">
-        <v>0.8582107860455324</v>
-      </c>
       <c r="K26">
-        <v>1.299998938007363</v>
+        <v>0.6601649213800367</v>
       </c>
       <c r="L26">
-        <v>1.600003068406778</v>
+        <v>0.5986974488409955</v>
       </c>
       <c r="M26">
-        <v>1.4</v>
+        <v>0.8467209560278934</v>
       </c>
       <c r="N26">
         <v>1.292635181922734</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>1.292635181922734</v>
       </c>
-      <c r="BA26">
-        <v>1.292635181922734</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.7944275769654513</v>
-      </c>
-      <c r="H27">
-        <v>0.7438524638776577</v>
-      </c>
-      <c r="I27">
-        <v>1.167174172243574</v>
-      </c>
-      <c r="J27">
-        <v>0.8363212292529049</v>
-      </c>
       <c r="K27">
-        <v>1.09296503537684</v>
+        <v>0.6635130005449599</v>
       </c>
       <c r="L27">
-        <v>1.201822904878017</v>
+        <v>0.6087020703667591</v>
       </c>
       <c r="M27">
-        <v>1.5</v>
+        <v>0.7676805930439032</v>
       </c>
       <c r="N27">
         <v>1.682020243440505</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>1.682020243440505</v>
       </c>
-      <c r="BA27">
-        <v>1.682020243440505</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.7930197352591748</v>
-      </c>
-      <c r="H28">
-        <v>0.7427768155388219</v>
-      </c>
-      <c r="I28">
-        <v>1.133557740211817</v>
-      </c>
-      <c r="J28">
-        <v>0.8257064984031811</v>
-      </c>
       <c r="K28">
-        <v>0.9763887159986867</v>
+        <v>0.665148338693154</v>
       </c>
       <c r="L28">
-        <v>0.9631915542418839</v>
+        <v>0.6133224270100197</v>
       </c>
       <c r="M28">
-        <v>1.6</v>
+        <v>0.7411812377052963</v>
       </c>
       <c r="N28">
-        <v>1.785400977180075</v>
+        <v>1.27065391038454</v>
       </c>
       <c r="O28">
         <v>1.012497979540356</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>1.012497979540356</v>
       </c>
-      <c r="BA28">
-        <v>1.012497979540356</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>1.112394561420483</v>
-      </c>
-      <c r="J29">
-        <v>0.8205601055999964</v>
-      </c>
       <c r="K29">
-        <v>0.9167139733690618</v>
+        <v>0.6659470937634261</v>
       </c>
       <c r="L29">
-        <v>0.851799025832188</v>
+        <v>0.6154593427806936</v>
       </c>
       <c r="M29">
-        <v>1.7</v>
+        <v>0.7319064746404605</v>
       </c>
       <c r="N29">
-        <v>1.865520190697808</v>
+        <v>1.024123657137717</v>
       </c>
       <c r="O29">
         <v>1.634557118349079</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>1.634557118349079</v>
       </c>
-      <c r="BA29">
-        <v>1.634557118349079</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>1.099071311189555</v>
-      </c>
-      <c r="J30">
-        <v>0.8180650414917806</v>
-      </c>
       <c r="K30">
-        <v>0.8864722266600877</v>
+        <v>0.6663372323934056</v>
       </c>
       <c r="L30">
-        <v>0.8034431343216583</v>
+        <v>0.6164479655021996</v>
       </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>0.7285828931419404</v>
       </c>
       <c r="N30">
-        <v>1.954289383743401</v>
+        <v>0.9088098848738191</v>
       </c>
       <c r="O30">
-        <v>1.69089070224689</v>
+        <v>1.271554179257551</v>
       </c>
       <c r="P30">
         <v>0.8971548841028039</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.8971548841028039</v>
       </c>
-      <c r="BA30">
-        <v>0.8971548841028039</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>1.090683677248748</v>
-      </c>
-      <c r="J31">
-        <v>0.8168553975910224</v>
-      </c>
       <c r="K31">
-        <v>0.871163620515044</v>
+        <v>0.666527789078045</v>
       </c>
       <c r="L31">
-        <v>0.7829901878599348</v>
+        <v>0.6169053703830222</v>
       </c>
       <c r="M31">
-        <v>1.39118832185393</v>
+        <v>0.7273771958651593</v>
       </c>
       <c r="N31">
-        <v>1.496062096190909</v>
+        <v>0.8575943072518123</v>
       </c>
       <c r="O31">
-        <v>1.707900952539077</v>
+        <v>1.055167442703679</v>
       </c>
       <c r="P31">
         <v>1.102490924221428</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>1.102490924221428</v>
       </c>
-      <c r="BA31">
-        <v>1.102490924221428</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>1.085403253785596</v>
-      </c>
-      <c r="J32">
-        <v>0.816268945149626</v>
-      </c>
-      <c r="K32">
-        <v>0.8634152635451947</v>
-      </c>
       <c r="L32">
-        <v>0.7744248934152267</v>
+        <v>0.617117000057002</v>
       </c>
       <c r="M32">
-        <v>1.155502250813665</v>
+        <v>0.7269370773543593</v>
       </c>
       <c r="N32">
-        <v>1.227636121353138</v>
+        <v>0.8351401037874195</v>
       </c>
       <c r="O32">
-        <v>1.700581654411451</v>
+        <v>0.949988979238536</v>
       </c>
       <c r="P32">
-        <v>1.449999999999974</v>
+        <v>0.9806378958827168</v>
       </c>
       <c r="Q32">
         <v>0.9984536597660991</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>0.9984536597660991</v>
       </c>
-      <c r="BA32">
-        <v>0.9984536597660991</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.8594935359336431</v>
-      </c>
       <c r="L33">
-        <v>0.7708518890254685</v>
+        <v>0.6172149160146503</v>
       </c>
       <c r="M33">
-        <v>1.036362543406439</v>
+        <v>0.7267759201837052</v>
       </c>
       <c r="N33">
-        <v>1.089353233739468</v>
+        <v>0.8253287678894755</v>
       </c>
       <c r="O33">
-        <v>1.758637329982406</v>
+        <v>0.9001612244787307</v>
       </c>
       <c r="P33">
-        <v>1.649999999999991</v>
+        <v>0.9113171361424561</v>
       </c>
       <c r="Q33">
         <v>1.495216092286043</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>1.495216092286043</v>
       </c>
-      <c r="BA33">
-        <v>1.495216092286043</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.85750860894142</v>
-      </c>
-      <c r="L34">
-        <v>0.7693637168318366</v>
-      </c>
       <c r="M34">
-        <v>0.977178864397382</v>
+        <v>0.7267168186519404</v>
       </c>
       <c r="N34">
-        <v>1.019317732053999</v>
+        <v>0.8210455209421301</v>
       </c>
       <c r="O34">
-        <v>1.761065183524281</v>
+        <v>0.8766420981549914</v>
       </c>
       <c r="P34">
-        <v>1.750000000000057</v>
+        <v>0.8774899396061883</v>
       </c>
       <c r="Q34">
-        <v>1.525479407672719</v>
+        <v>1.206506048963521</v>
       </c>
       <c r="R34">
         <v>1.345302727311861</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>1.345302727311861</v>
       </c>
-      <c r="BA34">
-        <v>1.345302727311861</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.8565039663841731</v>
-      </c>
-      <c r="L35">
-        <v>0.768744267605606</v>
-      </c>
       <c r="M35">
-        <v>0.9478527960607185</v>
+        <v>0.7266951276980722</v>
       </c>
       <c r="N35">
-        <v>0.9839339135122345</v>
+        <v>0.8191760601340439</v>
       </c>
       <c r="O35">
-        <v>1.419060943261685</v>
+        <v>0.865546794916857</v>
       </c>
       <c r="P35">
-        <v>1.366412980972918</v>
+        <v>0.8612145976279841</v>
       </c>
       <c r="Q35">
-        <v>1.43406346513153</v>
+        <v>1.043181365067083</v>
       </c>
       <c r="R35">
         <v>1.428495556385869</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>1.428495556385869</v>
       </c>
-      <c r="BA35">
-        <v>1.428495556385869</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.8559954808573089</v>
-      </c>
-      <c r="L36">
-        <v>0.7684864860421005</v>
-      </c>
-      <c r="M36">
-        <v>0.9333267942832478</v>
-      </c>
       <c r="N36">
-        <v>0.9660634209749546</v>
+        <v>0.8183601679768298</v>
       </c>
       <c r="O36">
-        <v>1.224650971717988</v>
+        <v>0.8603129196391915</v>
       </c>
       <c r="P36">
-        <v>1.154560887197123</v>
+        <v>0.8533951690086325</v>
       </c>
       <c r="Q36">
-        <v>1.394827935964926</v>
+        <v>0.9626718616116485</v>
       </c>
       <c r="R36">
-        <v>1.38895726780008</v>
+        <v>1.181111748345853</v>
       </c>
       <c r="S36">
         <v>0.7394362573787987</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.7394362573787987</v>
       </c>
-      <c r="BA36">
-        <v>0.7394362573787987</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.9261320559717013</v>
-      </c>
       <c r="N37">
-        <v>0.9570384498081409</v>
+        <v>0.8180040925041586</v>
       </c>
       <c r="O37">
-        <v>1.120648817988439</v>
+        <v>0.8578440245592258</v>
       </c>
       <c r="P37">
-        <v>1.04804806644491</v>
+        <v>0.8496388980148323</v>
       </c>
       <c r="Q37">
-        <v>1.297983098294097</v>
+        <v>0.9234235899255914</v>
       </c>
       <c r="R37">
-        <v>1.323376906487923</v>
+        <v>1.047588115331252</v>
       </c>
       <c r="S37">
         <v>1.299999999999983</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>1.299999999999983</v>
       </c>
-      <c r="BA37">
-        <v>1.299999999999983</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.922568525326949</v>
-      </c>
-      <c r="N38">
-        <v>0.9524806857171131</v>
-      </c>
       <c r="O38">
-        <v>1.065228548953336</v>
+        <v>0.8566794127741816</v>
       </c>
       <c r="P38">
-        <v>0.9949508128099505</v>
+        <v>0.8478344997590656</v>
       </c>
       <c r="Q38">
-        <v>1.298079628333952</v>
+        <v>0.9043086543103469</v>
       </c>
       <c r="R38">
-        <v>1.273378434540362</v>
+        <v>0.9808791029046381</v>
       </c>
       <c r="S38">
-        <v>1.300000000000011</v>
+        <v>1.119522312946864</v>
       </c>
       <c r="T38">
         <v>1.233394657233262</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>1.233394657233262</v>
       </c>
-      <c r="BA38">
-        <v>1.233394657233262</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.9208035221389531</v>
-      </c>
-      <c r="N39">
-        <v>0.9501789397880606</v>
-      </c>
       <c r="O39">
-        <v>1.035704098730786</v>
+        <v>0.8561300495008667</v>
       </c>
       <c r="P39">
-        <v>0.9685031238710219</v>
+        <v>0.8469677230613609</v>
       </c>
       <c r="Q39">
-        <v>1.133233993147335</v>
+        <v>0.89499997374234</v>
       </c>
       <c r="R39">
-        <v>1.244206465169853</v>
+        <v>0.9477330477452295</v>
       </c>
       <c r="S39">
-        <v>1.200438691058508</v>
+        <v>1.018716845126131</v>
       </c>
       <c r="T39">
         <v>1.297884859680252</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>1.297884859680252</v>
       </c>
-      <c r="BA39">
-        <v>1.297884859680252</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.9199293229134207</v>
-      </c>
-      <c r="N40">
-        <v>0.9490165203722176</v>
-      </c>
-      <c r="O40">
-        <v>1.019975593335487</v>
-      </c>
       <c r="P40">
-        <v>0.9553305922715606</v>
+        <v>0.8465513506080027</v>
       </c>
       <c r="Q40">
-        <v>1.044192837950094</v>
+        <v>0.8904668230104936</v>
       </c>
       <c r="R40">
-        <v>1.213269603306941</v>
+        <v>0.9312702765347618</v>
       </c>
       <c r="S40">
-        <v>1.200000000000003</v>
+        <v>0.9680748712042008</v>
       </c>
       <c r="T40">
-        <v>1.188396168593854</v>
+        <v>1.122923833675393</v>
       </c>
       <c r="U40">
         <v>1.637264503497377</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>1.637264503497377</v>
       </c>
-      <c r="BA40">
-        <v>1.637264503497377</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>1.011596585674419</v>
-      </c>
       <c r="P41">
-        <v>0.948769933069884</v>
+        <v>0.8463513382891783</v>
       </c>
       <c r="Q41">
-        <v>0.9988433445754974</v>
+        <v>0.8882592661114662</v>
       </c>
       <c r="R41">
-        <v>1.174392625558269</v>
+        <v>0.9230938989525208</v>
       </c>
       <c r="S41">
-        <v>1.200000000000017</v>
+        <v>0.9427500109089398</v>
       </c>
       <c r="T41">
-        <v>1.19999999999996</v>
+        <v>1.030264026315975</v>
       </c>
       <c r="U41">
         <v>1.331979115623398</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>1.331979115623398</v>
       </c>
-      <c r="BA41">
-        <v>1.331979115623398</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>1.007132858055507</v>
-      </c>
-      <c r="P42">
-        <v>0.9455023593770535</v>
-      </c>
       <c r="Q42">
-        <v>0.9758310804806789</v>
+        <v>0.8871842285783901</v>
       </c>
       <c r="R42">
-        <v>1.11999999999999</v>
+        <v>0.919033039475057</v>
       </c>
       <c r="S42">
-        <v>1.199999999999974</v>
+        <v>0.9300883000894331</v>
       </c>
       <c r="T42">
-        <v>1.200000000000017</v>
+        <v>0.983589296164272</v>
       </c>
       <c r="U42">
-        <v>1.254756557140297</v>
+        <v>1.1529789733345</v>
       </c>
       <c r="V42">
         <v>1.795921598270084</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>1.795921598270084</v>
       </c>
-      <c r="BA42">
-        <v>1.795921598270084</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>1.0047549077112</v>
-      </c>
-      <c r="P43">
-        <v>0.9438749257978623</v>
-      </c>
       <c r="Q43">
-        <v>0.9641564457088471</v>
+        <v>0.8866607060852046</v>
       </c>
       <c r="R43">
-        <v>1.046368470522632</v>
+        <v>0.9170161833817853</v>
       </c>
       <c r="S43">
-        <v>1.080557238495688</v>
+        <v>0.9237578652640721</v>
       </c>
       <c r="T43">
-        <v>1.20000998998195</v>
+        <v>0.9601301640629818</v>
       </c>
       <c r="U43">
-        <v>1.180476073897637</v>
+        <v>1.061319597764081</v>
       </c>
       <c r="V43">
-        <v>1.259051018419825</v>
+        <v>1.421501718442777</v>
       </c>
       <c r="W43">
         <v>1.327129713066284</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>1.327129713066284</v>
       </c>
-      <c r="BA43">
-        <v>1.327129713066284</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>1.003488108228617</v>
-      </c>
-      <c r="P44">
-        <v>0.9430643732944805</v>
-      </c>
-      <c r="Q44">
-        <v>0.9582337339689017</v>
-      </c>
       <c r="R44">
-        <v>1.007443383125407</v>
+        <v>0.9160144967996339</v>
       </c>
       <c r="S44">
-        <v>1.017572230433722</v>
+        <v>0.9205928595280161</v>
       </c>
       <c r="T44">
-        <v>1.200000000000003</v>
+        <v>0.948340579087191</v>
       </c>
       <c r="U44">
-        <v>1.177968505377919</v>
+        <v>1.014608497631234</v>
       </c>
       <c r="V44">
-        <v>1.248225394826875</v>
+        <v>1.223023978052928</v>
       </c>
       <c r="W44">
-        <v>1.133897030360657</v>
+        <v>1.1702801787157</v>
       </c>
       <c r="X44">
         <v>1.15883627336575</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>1.15883627336575</v>
       </c>
-      <c r="BA44">
-        <v>1.15883627336575</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.9552290592848055</v>
-      </c>
       <c r="R45">
-        <v>0.9874603151665923</v>
+        <v>0.9155170017075025</v>
       </c>
       <c r="S45">
-        <v>0.9857281153744318</v>
+        <v>0.9190104625233115</v>
       </c>
       <c r="T45">
-        <v>1.200000000000003</v>
+        <v>0.9424156505571598</v>
       </c>
       <c r="U45">
-        <v>1.177985483013714</v>
+        <v>0.990808098147987</v>
       </c>
       <c r="V45">
-        <v>1.23267744128168</v>
+        <v>1.118213097881678</v>
       </c>
       <c r="W45">
-        <v>1.156033273165875</v>
+        <v>1.087744673430577</v>
       </c>
       <c r="X45">
-        <v>1.07815639196258</v>
+        <v>1.081364178912504</v>
       </c>
       <c r="Y45">
         <v>1.076058203620576</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>1.076058203620576</v>
       </c>
-      <c r="BA45">
-        <v>1.076058203620576</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.9537047457990263</v>
-      </c>
-      <c r="R46">
-        <v>0.9772164590305884</v>
-      </c>
       <c r="S46">
-        <v>0.9696580615473044</v>
+        <v>0.9182193169498165</v>
       </c>
       <c r="T46">
-        <v>1.19999999999996</v>
+        <v>0.9394380418541559</v>
       </c>
       <c r="U46">
-        <v>1.178002451257697</v>
+        <v>0.9786813213043357</v>
       </c>
       <c r="V46">
-        <v>1.217111491404864</v>
+        <v>1.062865714665658</v>
       </c>
       <c r="W46">
-        <v>1.156101091881951</v>
+        <v>1.044274508340707</v>
       </c>
       <c r="X46">
-        <v>1.156346564074198</v>
+        <v>1.040603585114552</v>
       </c>
       <c r="Y46">
-        <v>1.235627072435449</v>
+        <v>1.037672631654206</v>
       </c>
       <c r="Z46">
         <v>0.3</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0.3</v>
       </c>
-      <c r="BA46">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.9529314402543118</v>
-      </c>
-      <c r="R47">
-        <v>0.9719655684080588</v>
-      </c>
       <c r="S47">
-        <v>0.9615490237875758</v>
+        <v>0.9178237706257441</v>
       </c>
       <c r="T47">
-        <v>1.092706058208794</v>
+        <v>0.9379416265877033</v>
       </c>
       <c r="U47">
-        <v>1.087752453066313</v>
+        <v>0.9725024889757424</v>
       </c>
       <c r="V47">
-        <v>1.217677114878327</v>
+        <v>1.033638474505783</v>
       </c>
       <c r="W47">
-        <v>1.156248442656093</v>
+        <v>1.021379416776289</v>
       </c>
       <c r="X47">
-        <v>1.195404621201419</v>
+        <v>1.019150905461762</v>
       </c>
       <c r="Y47">
-        <v>1.197008278629895</v>
+        <v>1.0174793671471</v>
       </c>
       <c r="Z47">
-        <v>1.2</v>
+        <v>0.6109862586513856</v>
       </c>
       <c r="AA47">
         <v>2.40590956953757</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>2.40590956953757</v>
       </c>
-      <c r="BA47">
-        <v>2.40590956953757</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.9525391315390085</v>
-      </c>
-      <c r="R48">
-        <v>0.9692740282150335</v>
-      </c>
-      <c r="S48">
-        <v>0.957457173964225</v>
-      </c>
       <c r="T48">
-        <v>1.03603327545616</v>
+        <v>0.9371895940434477</v>
       </c>
       <c r="U48">
-        <v>1.039928287355058</v>
+        <v>0.9693542518924056</v>
       </c>
       <c r="V48">
-        <v>1.217388890890092</v>
+        <v>1.01820447351628</v>
       </c>
       <c r="W48">
-        <v>1.156266946903713</v>
+        <v>1.00932091141198</v>
       </c>
       <c r="X48">
-        <v>1.19556623049948</v>
+        <v>1.007860151711639</v>
       </c>
       <c r="Y48">
-        <v>1.19676805996977</v>
+        <v>1.006852870033513</v>
       </c>
       <c r="Z48">
-        <v>1.2</v>
+        <v>0.7774242511626395</v>
       </c>
       <c r="AA48">
-        <v>1.156879353902923</v>
+        <v>1.694783091864172</v>
       </c>
       <c r="AB48">
         <v>-0.4</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>-0.4</v>
       </c>
-      <c r="BA48">
-        <v>-0.4</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.9678943789740532</v>
-      </c>
-      <c r="S49">
-        <v>0.9553924120717301</v>
-      </c>
       <c r="T49">
-        <v>1.007020262113558</v>
+        <v>0.9368116555391517</v>
       </c>
       <c r="U49">
-        <v>1.015227057922756</v>
+        <v>0.967750162931579</v>
       </c>
       <c r="V49">
-        <v>1.217426712276051</v>
+        <v>1.010054255252738</v>
       </c>
       <c r="W49">
-        <v>1.156334506046548</v>
+        <v>1.002969875373864</v>
       </c>
       <c r="X49">
-        <v>1.195671426878249</v>
+        <v>1.001917718293283</v>
       </c>
       <c r="Y49">
-        <v>1.096871564713766</v>
+        <v>1.001260780921013</v>
       </c>
       <c r="Z49">
-        <v>1.1</v>
+        <v>0.8642880335554225</v>
       </c>
       <c r="AA49">
-        <v>1.096182784556717</v>
+        <v>1.387750870061162</v>
       </c>
       <c r="AB49">
-        <v>1.1</v>
+        <v>0.5696540233511374</v>
       </c>
       <c r="AC49">
         <v>0.8963263664365542</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>0.8963263664365542</v>
       </c>
-      <c r="BA49">
-        <v>0.8963263664365542</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.9671871883420128</v>
-      </c>
-      <c r="S50">
-        <v>0.9543505259262576</v>
-      </c>
-      <c r="T50">
-        <v>0.9921823535517676</v>
-      </c>
       <c r="U50">
-        <v>1.00247744320389</v>
+        <v>0.9669328479308037</v>
       </c>
       <c r="V50">
-        <v>1.217464501955263</v>
+        <v>1.005750377224704</v>
       </c>
       <c r="W50">
-        <v>1.156401989941273</v>
+        <v>0.9996248788308564</v>
       </c>
       <c r="X50">
-        <v>1.195776476326287</v>
+        <v>0.9987901578386612</v>
       </c>
       <c r="Y50">
-        <v>1.096975024672744</v>
+        <v>0.9983179992713025</v>
       </c>
       <c r="Z50">
-        <v>1.1</v>
+        <v>0.9096095374578562</v>
       </c>
       <c r="AA50">
-        <v>1.096287219866653</v>
+        <v>1.223688253826089</v>
       </c>
       <c r="AB50">
-        <v>1.1</v>
+        <v>0.6677299641258289</v>
       </c>
       <c r="AC50">
-        <v>1.054739260560808</v>
+        <v>0.7806708049872538</v>
       </c>
       <c r="AD50">
         <v>1.055400706275506</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>1.055400706275506</v>
       </c>
-      <c r="BA50">
-        <v>1.055400706275506</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.9668246914297879</v>
-      </c>
-      <c r="S51">
-        <v>0.9538247864965919</v>
-      </c>
-      <c r="T51">
-        <v>0.9845941643460248</v>
-      </c>
       <c r="U51">
-        <v>0.9958968089886029</v>
+        <v>0.9665164097987516</v>
       </c>
       <c r="V51">
-        <v>1.127604389011654</v>
+        <v>1.003477632436622</v>
       </c>
       <c r="W51">
-        <v>1.089851048777724</v>
+        <v>0.9978631187328849</v>
       </c>
       <c r="X51">
-        <v>1.112219833087722</v>
+        <v>0.9971440923788284</v>
       </c>
       <c r="Y51">
-        <v>0.8964806844506086</v>
+        <v>0.9967693895006603</v>
       </c>
       <c r="Z51">
-        <v>0.9</v>
+        <v>0.9332561283842363</v>
       </c>
       <c r="AA51">
-        <v>0.8940832001503622</v>
+        <v>1.13743973427701</v>
       </c>
       <c r="AB51">
-        <v>0.9</v>
+        <v>0.8029581114067901</v>
       </c>
       <c r="AC51">
-        <v>0.9386326127426514</v>
+        <v>0.8879240078572176</v>
       </c>
       <c r="AD51">
-        <v>1.054937875620226</v>
+        <v>0.9978355600124083</v>
       </c>
       <c r="AE51">
         <v>-0.4303992348575321</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>-0.4303992348575321</v>
       </c>
-      <c r="BA51">
-        <v>-0.4303992348575321</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.9666388801288232</v>
-      </c>
-      <c r="S52">
-        <v>0.9535594965231123</v>
-      </c>
-      <c r="T52">
-        <v>0.9807135262821084</v>
-      </c>
-      <c r="U52">
-        <v>0.9925002572583422</v>
-      </c>
       <c r="V52">
-        <v>1.080206384448765</v>
+        <v>1.002277466252053</v>
       </c>
       <c r="W52">
-        <v>1.054688698433522</v>
+        <v>0.9969352258029825</v>
       </c>
       <c r="X52">
-        <v>1.068041771173912</v>
+        <v>0.9962777521314159</v>
       </c>
       <c r="Y52">
-        <v>0.8969416744211145</v>
+        <v>0.9959544489079852</v>
       </c>
       <c r="Z52">
-        <v>0.9</v>
+        <v>0.9455937869973159</v>
       </c>
       <c r="AA52">
-        <v>0.8955500796694196</v>
+        <v>1.092046866467034</v>
       </c>
       <c r="AB52">
-        <v>0.9</v>
+        <v>0.8655599763116012</v>
       </c>
       <c r="AC52">
-        <v>0.9384846269337999</v>
+        <v>0.914665095357458</v>
       </c>
       <c r="AD52">
-        <v>0.9384664268683167</v>
+        <v>0.9931248615338288</v>
       </c>
       <c r="AE52">
-        <v>-1.27022812579925</v>
+        <v>0.4293419787675555</v>
       </c>
       <c r="AF52">
         <v>-14.5</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>-14.5</v>
       </c>
-      <c r="BA52">
-        <v>-14.5</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.9787289485605327</v>
-      </c>
-      <c r="U53">
-        <v>0.9907471491031746</v>
-      </c>
-      <c r="V53">
-        <v>1.05487202354928</v>
-      </c>
       <c r="W53">
-        <v>1.03610172836696</v>
+        <v>0.9964465183505012</v>
       </c>
       <c r="X53">
-        <v>1.044671248631097</v>
+        <v>0.9958217888404037</v>
       </c>
       <c r="Y53">
-        <v>0.897045239457924</v>
+        <v>0.9955255944721036</v>
       </c>
       <c r="Z53">
-        <v>0.9</v>
+        <v>0.9520309863579981</v>
       </c>
       <c r="AA53">
-        <v>0.895655611442109</v>
+        <v>1.06815836509709</v>
       </c>
       <c r="AB53">
-        <v>0.9</v>
+        <v>0.9035204189968488</v>
       </c>
       <c r="AC53">
-        <v>0.9384890173785152</v>
+        <v>0.937139903856233</v>
       </c>
       <c r="AD53">
-        <v>0.9384708221732865</v>
+        <v>0.9851762559696065</v>
       </c>
       <c r="AE53">
-        <v>3.476645104916471</v>
+        <v>0.5851104447888934</v>
       </c>
       <c r="AF53">
-        <v>7.2</v>
+        <v>7.96955251685678</v>
       </c>
       <c r="AG53">
         <v>7.96955251685678</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>7.96955251685678</v>
       </c>
-      <c r="BA53">
-        <v>7.96955251685678</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.97771402558563</v>
-      </c>
-      <c r="U54">
-        <v>0.9898422936948832</v>
-      </c>
-      <c r="V54">
-        <v>1.041333087023577</v>
-      </c>
-      <c r="W54">
-        <v>1.026276578043913</v>
-      </c>
       <c r="X54">
-        <v>1.032308072451495</v>
+        <v>0.9955818109294484</v>
       </c>
       <c r="Y54">
-        <v>0.8971486565941547</v>
+        <v>0.9952999140619873</v>
       </c>
       <c r="Z54">
-        <v>0.9</v>
+        <v>0.9553896086791781</v>
       </c>
       <c r="AA54">
-        <v>0.8957609954104413</v>
+        <v>1.055586705175573</v>
       </c>
       <c r="AB54">
-        <v>0.9</v>
+        <v>0.9245996469271281</v>
       </c>
       <c r="AC54">
-        <v>0.9384934066497976</v>
+        <v>0.9486646975938925</v>
       </c>
       <c r="AD54">
-        <v>0.9384752163051928</v>
+        <v>0.9816674266393357</v>
       </c>
       <c r="AE54">
-        <v>1.099999999999994</v>
+        <v>0.7393301167108166</v>
       </c>
       <c r="AF54">
-        <v>4.8</v>
+        <v>-5.547669657729048</v>
       </c>
       <c r="AG54">
-        <v>3.827676688284186</v>
+        <v>2.117788110998191</v>
       </c>
       <c r="AH54">
         <v>2.117788110998191</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>2.117788110998191</v>
       </c>
-      <c r="BA54">
-        <v>2.117788110998191</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.9771949888990104</v>
-      </c>
-      <c r="U55">
-        <v>0.9893752584423842</v>
-      </c>
-      <c r="V55">
-        <v>1.034097727270108</v>
-      </c>
-      <c r="W55">
-        <v>1.02108296238008</v>
-      </c>
-      <c r="X55">
-        <v>1.025767862450098</v>
-      </c>
       <c r="Y55">
-        <v>1.047524190463576</v>
+        <v>0.99518115197572</v>
       </c>
       <c r="Z55">
-        <v>1.03966614546765</v>
+        <v>0.9571419769474698</v>
       </c>
       <c r="AA55">
-        <v>1.053686815782864</v>
+        <v>1.048970694880886</v>
       </c>
       <c r="AB55">
-        <v>1.0411636703584</v>
+        <v>0.9366245285256594</v>
       </c>
       <c r="AC55">
-        <v>0.8997408759775709</v>
+        <v>0.9555922578575402</v>
       </c>
       <c r="AD55">
-        <v>1.014701083534135</v>
+        <v>0.9794895985299672</v>
       </c>
       <c r="AE55">
-        <v>1.128212149305213</v>
+        <v>0.8144022233194895</v>
       </c>
       <c r="AF55">
-        <v>2.5</v>
+        <v>4.480840698275534</v>
       </c>
       <c r="AG55">
-        <v>2.333971758100887</v>
+        <v>-0.1434459718371263</v>
       </c>
       <c r="AH55">
-        <v>0.6610065710979711</v>
+        <v>-0.9861240056009706</v>
       </c>
       <c r="AI55">
         <v>-0.9861240056009706</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>-0.9861240056009706</v>
       </c>
-      <c r="BA55">
-        <v>-0.9861240056009706</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.9769295509409401</v>
-      </c>
-      <c r="U56">
-        <v>0.9891342012247578</v>
-      </c>
-      <c r="V56">
-        <v>1.030231069860948</v>
-      </c>
-      <c r="W56">
-        <v>1.018337595360063</v>
-      </c>
-      <c r="X56">
-        <v>1.022308043853244</v>
-      </c>
-      <c r="Y56">
-        <v>1.107504771605663</v>
-      </c>
       <c r="Z56">
-        <v>1.094401901142755</v>
+        <v>0.9580562787813948</v>
       </c>
       <c r="AA56">
-        <v>1.108393009184163</v>
+        <v>1.045488927659871</v>
       </c>
       <c r="AB56">
-        <v>1.078265231090482</v>
+        <v>0.9434267009963019</v>
       </c>
       <c r="AC56">
-        <v>0.9000000000000057</v>
+        <v>0.9595258694060015</v>
       </c>
       <c r="AD56">
-        <v>0.8999999999999915</v>
+        <v>0.9782905379917156</v>
       </c>
       <c r="AE56">
-        <v>0.9000000000000057</v>
+        <v>0.8596956080987274</v>
       </c>
       <c r="AF56">
-        <v>1.9</v>
+        <v>-2.082621907091045</v>
       </c>
       <c r="AG56">
-        <v>2.179991183471074</v>
+        <v>0.94052730821333</v>
       </c>
       <c r="AH56">
-        <v>2.431647180969904</v>
+        <v>1.176920565593109</v>
       </c>
       <c r="AI56">
-        <v>2.159621696530635</v>
+        <v>2.876944405321424</v>
       </c>
       <c r="AJ56">
         <v>2.876944405321424</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>2.876944405321424</v>
       </c>
-      <c r="BA56">
-        <v>2.876944405321424</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>1.028164684769546</v>
-      </c>
-      <c r="W57">
-        <v>1.016886382840221</v>
-      </c>
-      <c r="X57">
-        <v>1.020477774684429</v>
-      </c>
-      <c r="Y57">
-        <v>1.142058515540487</v>
-      </c>
-      <c r="Z57">
-        <v>1.125690592714745</v>
-      </c>
       <c r="AA57">
-        <v>1.142756938527729</v>
+        <v>1.043656599350534</v>
       </c>
       <c r="AB57">
-        <v>1.111497696721119</v>
+        <v>0.9472846048659705</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999631</v>
+        <v>0.9618040060627141</v>
       </c>
       <c r="AD57">
-        <v>0.8999999999999915</v>
+        <v>0.9776040094824326</v>
       </c>
       <c r="AE57">
-        <v>0.8999999999999488</v>
+        <v>0.8850165761048694</v>
       </c>
       <c r="AF57">
-        <v>0.9</v>
+        <v>2.541636200629978</v>
       </c>
       <c r="AG57">
-        <v>1.694724769284434</v>
+        <v>0.9555106245334892</v>
       </c>
       <c r="AH57">
-        <v>3.775318678068402</v>
+        <v>1.079011801694277</v>
       </c>
       <c r="AI57">
-        <v>4.732906757938665</v>
+        <v>0.8013964667278068</v>
       </c>
       <c r="AJ57">
-        <v>4.392337843875254</v>
+        <v>0.4364757668776207</v>
       </c>
       <c r="AK57">
         <v>0.4364757668776207</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>0.4364757668776207</v>
       </c>
-      <c r="BA57">
-        <v>0.4364757668776207</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>1.027060385398251</v>
-      </c>
-      <c r="W58">
-        <v>1.01611926581638</v>
-      </c>
-      <c r="X58">
-        <v>1.019509548999602</v>
-      </c>
-      <c r="Y58">
-        <v>1.160080196532695</v>
-      </c>
-      <c r="Z58">
-        <v>1.141808128320231</v>
-      </c>
-      <c r="AA58">
-        <v>1.15999904115506</v>
-      </c>
       <c r="AB58">
-        <v>1.126403551368436</v>
+        <v>0.9494708618713318</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999915</v>
+        <v>0.963114267007696</v>
       </c>
       <c r="AD58">
-        <v>0.8999999999999915</v>
+        <v>0.9772160629543578</v>
       </c>
       <c r="AE58">
-        <v>0.9000000000000057</v>
+        <v>0.8995431690075254</v>
       </c>
       <c r="AF58">
-        <v>0.9</v>
+        <v>-0.5767548970582073</v>
       </c>
       <c r="AG58">
-        <v>1.505722646161871</v>
+        <v>0.8380381144602509</v>
       </c>
       <c r="AH58">
-        <v>2.366934917262256</v>
+        <v>0.8037656670052663</v>
       </c>
       <c r="AI58">
-        <v>2.822664617413935</v>
+        <v>0.665246212969308</v>
       </c>
       <c r="AJ58">
-        <v>2.125104309773619</v>
+        <v>0.7883445927668925</v>
       </c>
       <c r="AK58">
-        <v>2.937471668522804</v>
+        <v>0.6542354095451515</v>
       </c>
       <c r="AL58">
         <v>0.6542354095451515</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>0.6542354095451515</v>
       </c>
-      <c r="BA58">
-        <v>0.6542354095451515</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>1.026470235427407</v>
-      </c>
-      <c r="W59">
-        <v>1.015713764540571</v>
-      </c>
-      <c r="X59">
-        <v>1.018997350579429</v>
-      </c>
-      <c r="Y59">
-        <v>1.169710736755752</v>
-      </c>
-      <c r="Z59">
-        <v>1.150328507429146</v>
-      </c>
-      <c r="AA59">
-        <v>1.169325331861423</v>
-      </c>
-      <c r="AB59">
-        <v>1.13584910006715</v>
-      </c>
       <c r="AC59">
-        <v>1.081770529465988</v>
+        <v>0.9638696860516176</v>
       </c>
       <c r="AD59">
-        <v>1.088375481751467</v>
+        <v>0.9769958805465473</v>
       </c>
       <c r="AE59">
-        <v>1.150332208454087</v>
+        <v>0.9078029680872061</v>
       </c>
       <c r="AF59">
-        <v>1.139243867913974</v>
+        <v>1.581246775476729</v>
       </c>
       <c r="AG59">
-        <v>1.102489650700704</v>
+        <v>0.860691608657442</v>
       </c>
       <c r="AH59">
-        <v>1.407151286217001</v>
+        <v>0.8843798994207135</v>
       </c>
       <c r="AI59">
-        <v>1.351018198493989</v>
+        <v>1.097714245248816</v>
       </c>
       <c r="AJ59">
-        <v>1.286546376365166</v>
+        <v>1.174584576024399</v>
       </c>
       <c r="AK59">
-        <v>1.70681906437467</v>
+        <v>1.18094361729527</v>
       </c>
       <c r="AL59">
-        <v>0.4196958401716984</v>
+        <v>-1.358640149334988</v>
       </c>
       <c r="AM59">
         <v>-1.358640149334988</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>-1.358640149334988</v>
       </c>
-      <c r="BA59">
-        <v>-1.358640149334988</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>1.026154852663331</v>
-      </c>
-      <c r="W60">
-        <v>1.015499414865655</v>
-      </c>
-      <c r="X60">
-        <v>1.018726393894702</v>
-      </c>
-      <c r="Y60">
-        <v>1.174825818237374</v>
-      </c>
-      <c r="Z60">
-        <v>1.154802933985635</v>
-      </c>
-      <c r="AA60">
-        <v>1.174238600061924</v>
-      </c>
-      <c r="AB60">
-        <v>1.140811083609192</v>
-      </c>
-      <c r="AC60">
-        <v>1.09580783391133</v>
-      </c>
       <c r="AD60">
-        <v>1.102073090282944</v>
+        <v>0.9768710961330712</v>
       </c>
       <c r="AE60">
-        <v>1.144319713470153</v>
+        <v>0.9125138891389932</v>
       </c>
       <c r="AF60">
-        <v>1.10222622075261</v>
+        <v>0.1105772445554974</v>
       </c>
       <c r="AG60">
-        <v>1.045803247682485</v>
+        <v>0.868413963775553</v>
       </c>
       <c r="AH60">
-        <v>1.166680881783094</v>
+        <v>0.9027958484224642</v>
       </c>
       <c r="AI60">
-        <v>1.162636031458717</v>
+        <v>0.9993329069340622</v>
       </c>
       <c r="AJ60">
-        <v>1.146327110056689</v>
+        <v>0.9819741371837107</v>
       </c>
       <c r="AK60">
-        <v>1.373143137638323</v>
+        <v>0.977389122873255</v>
       </c>
       <c r="AL60">
-        <v>3.472627034519775</v>
+        <v>1.687335651498257</v>
       </c>
       <c r="AM60">
-        <v>1.303307312459893</v>
+        <v>1.767346889326234</v>
       </c>
       <c r="AN60">
         <v>1.767346889326234</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>1.767346889326234</v>
       </c>
-      <c r="BA60">
-        <v>1.767346889326234</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>1.177546745736687</v>
-      </c>
-      <c r="Z61">
-        <v>1.157156621681849</v>
-      </c>
-      <c r="AA61">
-        <v>1.176850708369707</v>
-      </c>
-      <c r="AB61">
-        <v>1.143686398905943</v>
-      </c>
-      <c r="AC61">
-        <v>1.127773254289655</v>
-      </c>
-      <c r="AD61">
-        <v>1.134043123837571</v>
-      </c>
       <c r="AE61">
-        <v>1.14151991321736</v>
+        <v>0.9151979026204471</v>
       </c>
       <c r="AF61">
-        <v>1.063712940400757</v>
+        <v>1.121961599843803</v>
       </c>
       <c r="AG61">
-        <v>0.9000000000000057</v>
+        <v>0.8644304351718668</v>
       </c>
       <c r="AH61">
-        <v>0.8999999999999915</v>
+        <v>0.887160685763996</v>
       </c>
       <c r="AI61">
-        <v>1.04444180503269</v>
+        <v>0.9456193762640408</v>
       </c>
       <c r="AJ61">
-        <v>1.035494239486283</v>
+        <v>0.9637494529670696</v>
       </c>
       <c r="AK61">
-        <v>1.03735321004126</v>
+        <v>0.9398129486499094</v>
       </c>
       <c r="AL61">
-        <v>2.515224040220957</v>
+        <v>1.107706765283698</v>
       </c>
       <c r="AM61">
-        <v>1.793919882747446</v>
+        <v>1.073719276371375</v>
       </c>
       <c r="AN61">
-        <v>1.492892505212055</v>
+        <v>0.1973819540654631</v>
       </c>
       <c r="AO61">
         <v>0.1973819540654631</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>0.1973819540654631</v>
       </c>
-      <c r="BA61">
-        <v>0.1973819540654631</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>1.178993569674537</v>
-      </c>
-      <c r="Z62">
-        <v>1.158394202334005</v>
-      </c>
-      <c r="AA62">
-        <v>1.178235026823415</v>
-      </c>
-      <c r="AB62">
-        <v>1.145267485347111</v>
-      </c>
-      <c r="AC62">
-        <v>1.132626624774042</v>
-      </c>
-      <c r="AD62">
-        <v>1.13862006241187</v>
-      </c>
-      <c r="AE62">
-        <v>1.141657873192546</v>
-      </c>
       <c r="AF62">
-        <v>1.07651730760929</v>
+        <v>0.4301539581084639</v>
       </c>
       <c r="AG62">
-        <v>0.8999999999999631</v>
+        <v>0.8644373687143145</v>
       </c>
       <c r="AH62">
-        <v>0.8999999999999631</v>
+        <v>0.8884243000813412</v>
       </c>
       <c r="AI62">
-        <v>0.8999999999999915</v>
+        <v>0.9796893880393779</v>
       </c>
       <c r="AJ62">
-        <v>0.8999999999999915</v>
+        <v>1.008645191909275</v>
       </c>
       <c r="AK62">
-        <v>0.9000000000000057</v>
+        <v>0.9901134673491643</v>
       </c>
       <c r="AL62">
-        <v>1.714462456866599</v>
+        <v>0.7261504490668091</v>
       </c>
       <c r="AM62">
-        <v>0.9111528790963348</v>
+        <v>0.6811217693677702</v>
       </c>
       <c r="AN62">
-        <v>0.9723439816732906</v>
+        <v>0.9245494334280342</v>
       </c>
       <c r="AO62">
-        <v>0.6244449766976032</v>
+        <v>-2.016521230865749</v>
       </c>
       <c r="AP62">
         <v>-2.016521230865749</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>-2.016521230865749</v>
       </c>
-      <c r="BA62">
-        <v>-2.016521230865749</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>1.179762976130027</v>
-      </c>
-      <c r="Z63">
-        <v>1.159044999656848</v>
-      </c>
-      <c r="AA63">
-        <v>1.178969469744575</v>
-      </c>
-      <c r="AB63">
-        <v>1.146161317309043</v>
-      </c>
-      <c r="AC63">
-        <v>1.138432101904301</v>
-      </c>
-      <c r="AD63">
-        <v>1.144209609262177</v>
-      </c>
-      <c r="AE63">
-        <v>1.141687488689354</v>
-      </c>
       <c r="AF63">
-        <v>1.081657986815781</v>
+        <v>0.9048706223558975</v>
       </c>
       <c r="AG63">
-        <v>1.090412921814302</v>
+        <v>0.864856282455593</v>
       </c>
       <c r="AH63">
-        <v>1.097420991429096</v>
+        <v>0.8902783967898523</v>
       </c>
       <c r="AI63">
-        <v>1.066627714530764</v>
+        <v>0.9800861555672282</v>
       </c>
       <c r="AJ63">
-        <v>1.05773841755007</v>
+        <v>0.9982851362634525</v>
       </c>
       <c r="AK63">
-        <v>0.8935695826017991</v>
+        <v>0.9817818401501166</v>
       </c>
       <c r="AL63">
-        <v>1.088592867585561</v>
+        <v>0.952390010616654</v>
       </c>
       <c r="AM63">
-        <v>0.877295877902597</v>
+        <v>0.9431982022464083</v>
       </c>
       <c r="AN63">
-        <v>0.8496313849858552</v>
+        <v>0.9940720155247641</v>
       </c>
       <c r="AO63">
-        <v>-0.03666510695784098</v>
+        <v>1.868738712889935</v>
       </c>
       <c r="AP63">
-        <v>0.4358510060540368</v>
+        <v>-1.429923541452922</v>
       </c>
       <c r="AQ63">
         <v>-1.429923541452922</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>-1.429923541452922</v>
       </c>
-      <c r="BA63">
-        <v>-1.429923541452922</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>1.180172129006525</v>
-      </c>
-      <c r="Z64">
-        <v>1.159387220050222</v>
-      </c>
-      <c r="AA64">
-        <v>1.179358976021654</v>
-      </c>
-      <c r="AB64">
-        <v>1.146659238284973</v>
-      </c>
-      <c r="AC64">
-        <v>1.139704981764995</v>
-      </c>
-      <c r="AD64">
-        <v>1.145368622159385</v>
-      </c>
-      <c r="AE64">
-        <v>1.141685154806732</v>
-      </c>
-      <c r="AF64">
-        <v>1.078494800104633</v>
-      </c>
       <c r="AG64">
-        <v>1.04823868197705</v>
+        <v>0.8647691290509754</v>
       </c>
       <c r="AH64">
-        <v>1.04717979612564</v>
+        <v>0.8896518348193831</v>
       </c>
       <c r="AI64">
-        <v>1.050409159467987</v>
+        <v>0.9735150443743996</v>
       </c>
       <c r="AJ64">
-        <v>1.040630110392703</v>
+        <v>0.9923976724344985</v>
       </c>
       <c r="AK64">
-        <v>0.8999999999999915</v>
+        <v>0.9747744390205724</v>
       </c>
       <c r="AL64">
-        <v>0.8999999999999631</v>
+        <v>0.9521987561647647</v>
       </c>
       <c r="AM64">
-        <v>0.8999999999999915</v>
+        <v>0.9364913230666896</v>
       </c>
       <c r="AN64">
-        <v>0.8999999999999631</v>
+        <v>0.8296863037447322</v>
       </c>
       <c r="AO64">
-        <v>0.5229647859197541</v>
+        <v>1.061240837738995</v>
       </c>
       <c r="AP64">
-        <v>1.023214123673924</v>
+        <v>1.950690680930841</v>
       </c>
       <c r="AQ64">
-        <v>1.115317906508452</v>
+        <v>0.1801827438520291</v>
       </c>
       <c r="AR64">
         <v>0.1801827438520291</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>0.1801827438520291</v>
       </c>
-      <c r="BA64">
-        <v>0.1801827438520291</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>1.140789585356586</v>
-      </c>
-      <c r="AD65">
-        <v>1.14637197164371</v>
-      </c>
-      <c r="AE65">
-        <v>1.141684862548108</v>
-      </c>
-      <c r="AF65">
-        <v>1.078033619114193</v>
-      </c>
-      <c r="AG65">
-        <v>1.026441501505008</v>
-      </c>
       <c r="AH65">
-        <v>1.03341884285686</v>
+        <v>0.8895481387949808</v>
       </c>
       <c r="AI65">
-        <v>1.023781831367551</v>
+        <v>0.9753267751391725</v>
       </c>
       <c r="AJ65">
-        <v>1.015610472769533</v>
+        <v>0.9963501407933215</v>
       </c>
       <c r="AK65">
-        <v>0.8999999999999915</v>
+        <v>0.9785167054170417</v>
       </c>
       <c r="AL65">
-        <v>0.9000000000000057</v>
+        <v>0.9104711136647176</v>
       </c>
       <c r="AM65">
-        <v>0.8999999999999631</v>
+        <v>0.8871066253336068</v>
       </c>
       <c r="AN65">
-        <v>0.8999999999999915</v>
+        <v>0.8696093116749659</v>
       </c>
       <c r="AO65">
-        <v>1.637894309132932</v>
+        <v>0.5185101952348097</v>
       </c>
       <c r="AP65">
-        <v>1.17676823170008</v>
+        <v>0.8323792932490591</v>
       </c>
       <c r="AQ65">
-        <v>1.485276096267</v>
+        <v>1.254616968604566</v>
       </c>
       <c r="AR65">
-        <v>0.6601344558201987</v>
+        <v>0.6692453970872521</v>
       </c>
       <c r="AS65">
         <v>0.6692453970872521</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>0.6692453970872521</v>
       </c>
-      <c r="BA65">
-        <v>0.6692453970872521</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>1.1410895965982</v>
-      </c>
-      <c r="AD66">
-        <v>1.146635502635024</v>
-      </c>
-      <c r="AE66">
-        <v>1.141684897016869</v>
-      </c>
-      <c r="AF66">
-        <v>1.078689912517073</v>
-      </c>
-      <c r="AG66">
-        <v>1.038166088705464</v>
-      </c>
-      <c r="AH66">
-        <v>1.043676644754818</v>
-      </c>
       <c r="AI66">
-        <v>1.033639221223626</v>
+        <v>0.9760519283147584</v>
       </c>
       <c r="AJ66">
-        <v>1.025576303812507</v>
+        <v>0.9963094264715537</v>
       </c>
       <c r="AK66">
-        <v>0.8999999999999915</v>
+        <v>0.978698321781293</v>
       </c>
       <c r="AL66">
-        <v>0.8999999999999915</v>
+        <v>0.9235401336513989</v>
       </c>
       <c r="AM66">
-        <v>0.8999999999999915</v>
+        <v>0.904235763985091</v>
       </c>
       <c r="AN66">
-        <v>0.8999999999999915</v>
+        <v>0.8886704773108094</v>
       </c>
       <c r="AO66">
-        <v>1.523086876304319</v>
+        <v>0.8629853641496329</v>
       </c>
       <c r="AP66">
-        <v>1.099999999999994</v>
+        <v>0.5072025176079671</v>
       </c>
       <c r="AQ66">
-        <v>1.331426978689578</v>
+        <v>0.6580577480384073</v>
       </c>
       <c r="AR66">
-        <v>1.276329126567163</v>
+        <v>0.7818047146240747</v>
       </c>
       <c r="AS66">
-        <v>0.6495984455928863</v>
+        <v>-1.33243152085096</v>
       </c>
       <c r="AT66">
         <v>-1.33243152085096</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>-1.33243152085096</v>
       </c>
-      <c r="BA66">
-        <v>-1.33243152085096</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>1.141297030712794</v>
-      </c>
-      <c r="AD67">
-        <v>1.146819642902711</v>
-      </c>
-      <c r="AE67">
-        <v>1.14168489962631</v>
-      </c>
-      <c r="AF67">
-        <v>1.078673647274697</v>
-      </c>
-      <c r="AG67">
-        <v>1.03913372895868</v>
-      </c>
-      <c r="AH67">
-        <v>1.042916562827877</v>
-      </c>
-      <c r="AI67">
-        <v>1.036022727224554</v>
-      </c>
       <c r="AJ67">
-        <v>1.027587800075609</v>
+        <v>0.995518083421528</v>
       </c>
       <c r="AK67">
-        <v>0.9508149364979165</v>
+        <v>0.9779302967837533</v>
       </c>
       <c r="AL67">
-        <v>0.9822933535178615</v>
+        <v>0.9271652726433801</v>
       </c>
       <c r="AM67">
-        <v>0.8011329900940006</v>
+        <v>0.9084623939374092</v>
       </c>
       <c r="AN67">
-        <v>0.8073088914804747</v>
+        <v>0.8746861797897296</v>
       </c>
       <c r="AO67">
-        <v>1.441124882742528</v>
+        <v>0.8632616869151892</v>
       </c>
       <c r="AP67">
-        <v>1.023225446042673</v>
+        <v>0.8212621207194112</v>
       </c>
       <c r="AQ67">
-        <v>1.250190461185639</v>
+        <v>0.6324644555057979</v>
       </c>
       <c r="AR67">
-        <v>1.626705876186179</v>
+        <v>0.6616243975180387</v>
       </c>
       <c r="AS67">
-        <v>0.7035190431450076</v>
+        <v>1.22045551729559</v>
       </c>
       <c r="AT67">
-        <v>0.9275149032120851</v>
+        <v>-0.09168777270478756</v>
       </c>
       <c r="AU67">
         <v>-0.09168777270478756</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>-0.09168777270478756</v>
       </c>
-      <c r="BA67">
-        <v>-0.09168777270478756</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>1.141364019449248</v>
-      </c>
-      <c r="AD68">
-        <v>1.146876364167459</v>
-      </c>
-      <c r="AE68">
-        <v>1.141684899158242</v>
-      </c>
-      <c r="AF68">
-        <v>1.078554802294957</v>
-      </c>
-      <c r="AG68">
-        <v>1.037002082664943</v>
-      </c>
-      <c r="AH68">
-        <v>1.041730652886914</v>
-      </c>
-      <c r="AI68">
-        <v>1.033586380011609</v>
-      </c>
-      <c r="AJ68">
-        <v>1.025172599254894</v>
-      </c>
       <c r="AK68">
-        <v>0.9343277357653129</v>
+        <v>0.9781321283837879</v>
       </c>
       <c r="AL68">
-        <v>0.9570204417346719</v>
+        <v>0.9236190528490076</v>
       </c>
       <c r="AM68">
-        <v>0.8342113564562643</v>
+        <v>0.9037411611432552</v>
       </c>
       <c r="AN68">
-        <v>0.838592231740229</v>
+        <v>0.8755193090397426</v>
       </c>
       <c r="AO68">
-        <v>1.022281840489072</v>
+        <v>0.7917087468265767</v>
       </c>
       <c r="AP68">
-        <v>0.831363893125129</v>
+        <v>0.7912003998726108</v>
       </c>
       <c r="AQ68">
-        <v>1.099999999999966</v>
+        <v>0.7478626081835257</v>
       </c>
       <c r="AR68">
-        <v>1.351061390119085</v>
+        <v>0.6759428157593179</v>
       </c>
       <c r="AS68">
-        <v>0.8634927817323899</v>
+        <v>0.8412098720453753</v>
       </c>
       <c r="AT68">
-        <v>1.160890030898216</v>
+        <v>1.179982938627295</v>
       </c>
       <c r="AU68">
-        <v>0.5020459367003411</v>
+        <v>0.8481739611978583</v>
       </c>
       <c r="AV68">
         <v>0.8481739611978583</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>0.8481739611978583</v>
       </c>
-      <c r="BA68">
-        <v>0.8481739611978583</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>1.037315978938531</v>
-      </c>
-      <c r="AH69">
-        <v>1.042134658613312</v>
-      </c>
-      <c r="AI69">
-        <v>1.033773317113278</v>
-      </c>
-      <c r="AJ69">
-        <v>1.025446409988972</v>
-      </c>
-      <c r="AK69">
-        <v>0.9298218530096058</v>
-      </c>
       <c r="AL69">
-        <v>0.9486716331895575</v>
+        <v>0.9240571420173295</v>
       </c>
       <c r="AM69">
-        <v>0.8446477697488344</v>
+        <v>0.9044215713896381</v>
       </c>
       <c r="AN69">
-        <v>0.8481548178163367</v>
+        <v>0.8779746655640203</v>
       </c>
       <c r="AO69">
-        <v>1.022298982287893</v>
+        <v>0.8149811213132887</v>
       </c>
       <c r="AP69">
-        <v>0.8315806637672267</v>
+        <v>0.7390596413812732</v>
       </c>
       <c r="AQ69">
-        <v>0.9465067181295694</v>
+        <v>0.719777215115763</v>
       </c>
       <c r="AR69">
-        <v>1.200677642684028</v>
+        <v>0.6934128629691413</v>
       </c>
       <c r="AS69">
-        <v>0.9381661119426639</v>
+        <v>0.4979944312981256</v>
       </c>
       <c r="AT69">
-        <v>1.168328429083346</v>
+        <v>0.6074361714972262</v>
       </c>
       <c r="AU69">
-        <v>1.08645683165733</v>
+        <v>0.6787209209530216</v>
       </c>
       <c r="AV69">
-        <v>1.223847671557323</v>
+        <v>-0.2604183589432552</v>
       </c>
       <c r="AW69">
         <v>-0.2604183589432552</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>-0.2604183589432552</v>
       </c>
-      <c r="BA69">
-        <v>-0.2604183589432552</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>1.037595043336998</v>
-      </c>
-      <c r="AH70">
-        <v>1.042191310554039</v>
-      </c>
-      <c r="AI70">
-        <v>1.034175580400299</v>
-      </c>
-      <c r="AJ70">
-        <v>1.025826296561809</v>
-      </c>
-      <c r="AK70">
-        <v>0.9344814059860279</v>
-      </c>
-      <c r="AL70">
-        <v>0.9561832139620241</v>
-      </c>
       <c r="AM70">
-        <v>0.8339614648316848</v>
+        <v>0.9051320723360343</v>
       </c>
       <c r="AN70">
-        <v>0.8381366646728748</v>
+        <v>0.877013473486544</v>
       </c>
       <c r="AO70">
-        <v>1.022316133487493</v>
+        <v>0.8222371714007085</v>
       </c>
       <c r="AP70">
-        <v>0.8317978360804261</v>
+        <v>0.7603942438992662</v>
       </c>
       <c r="AQ70">
-        <v>0.8315105086107621</v>
+        <v>0.7068230870033609</v>
       </c>
       <c r="AR70">
-        <v>0.8992489212806873</v>
+        <v>0.685821193564744</v>
       </c>
       <c r="AS70">
-        <v>0.9009445305030255</v>
+        <v>0.6638336705125538</v>
       </c>
       <c r="AT70">
-        <v>1.131384303657796</v>
+        <v>0.5443413948725153</v>
       </c>
       <c r="AU70">
-        <v>1.130215775202473</v>
+        <v>0.5635965596138025</v>
       </c>
       <c r="AV70">
-        <v>1.298688101013951</v>
+        <v>0.8042760644209577</v>
       </c>
       <c r="AW70">
-        <v>0.5903841466431459</v>
+        <v>0.3093370292089048</v>
       </c>
       <c r="AX70">
         <v>0.3093370292089048</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.3093370292089048</v>
       </c>
-      <c r="BA70">
-        <v>0.3093370292089048</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>1.037481902277724</v>
-      </c>
-      <c r="AH71">
-        <v>1.042122567681806</v>
-      </c>
-      <c r="AI71">
-        <v>1.034037400565956</v>
-      </c>
-      <c r="AJ71">
-        <v>1.0256723409848</v>
-      </c>
-      <c r="AK71">
-        <v>0.9338434758086418</v>
-      </c>
-      <c r="AL71">
-        <v>0.9555107706450832</v>
-      </c>
-      <c r="AM71">
-        <v>0.8352669072987799</v>
-      </c>
       <c r="AN71">
-        <v>0.8394420212214833</v>
+        <v>0.8768474662417648</v>
       </c>
       <c r="AO71">
-        <v>0.7521094647347971</v>
+        <v>0.8150433966723059</v>
       </c>
       <c r="AP71">
-        <v>0.7439518322021602</v>
+        <v>0.7641956972866321</v>
       </c>
       <c r="AQ71">
-        <v>0.7057657995315402</v>
+        <v>0.7155877748504306</v>
       </c>
       <c r="AR71">
-        <v>0.6195938009594437</v>
+        <v>0.6848650467846481</v>
       </c>
       <c r="AS71">
-        <v>0.9542554236588785</v>
+        <v>0.6769616606983784</v>
       </c>
       <c r="AT71">
-        <v>1.054890867235912</v>
+        <v>0.6623310869579766</v>
       </c>
       <c r="AU71">
-        <v>1.057124933357414</v>
+        <v>0.6248184004667254</v>
       </c>
       <c r="AV71">
-        <v>0.8493495992462954</v>
+        <v>0.6973330262058893</v>
       </c>
       <c r="AW71">
-        <v>0.6273189856793806</v>
+        <v>0.83603468880094</v>
       </c>
       <c r="AX71">
-        <v>0.4548163684650035</v>
+        <v>-0.03180050048325711</v>
       </c>
       <c r="AY71">
         <v>-0.03180050048325711</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>-0.03180050048325711</v>
       </c>
-      <c r="BA71">
-        <v>-0.03180050048325711</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>1.03746132621685</v>
-      </c>
-      <c r="AH72">
-        <v>1.042132444043715</v>
-      </c>
-      <c r="AI72">
-        <v>1.033998626705686</v>
-      </c>
-      <c r="AJ72">
-        <v>1.025642511491198</v>
-      </c>
-      <c r="AK72">
-        <v>0.9331467637416502</v>
-      </c>
-      <c r="AL72">
-        <v>0.9542467645292092</v>
-      </c>
-      <c r="AM72">
-        <v>0.8371544123212165</v>
-      </c>
-      <c r="AN72">
-        <v>0.8411761334353701</v>
-      </c>
       <c r="AO72">
-        <v>0.841499082112829</v>
+        <v>0.8158836145270602</v>
       </c>
       <c r="AP72">
-        <v>0.7720579182915193</v>
+        <v>0.758917790596887</v>
       </c>
       <c r="AQ72">
-        <v>0.7642216713019359</v>
+        <v>0.7154505116890002</v>
       </c>
       <c r="AR72">
-        <v>0.7498731838761775</v>
+        <v>0.6865032686238416</v>
       </c>
       <c r="AS72">
-        <v>0.952430630112417</v>
+        <v>0.6438104615795641</v>
       </c>
       <c r="AT72">
-        <v>1.04856113400362</v>
+        <v>0.6404517041343987</v>
       </c>
       <c r="AU72">
-        <v>1.049396224688508</v>
+        <v>0.6276797178572501</v>
       </c>
       <c r="AV72">
-        <v>0.6030605385354875</v>
+        <v>0.5454092886272344</v>
       </c>
       <c r="AW72">
-        <v>0.6544491143835103</v>
+        <v>0.5937820192111082</v>
       </c>
       <c r="AX72">
-        <v>0.5036751034916449</v>
+        <v>0.8237140656384367</v>
       </c>
       <c r="AY72">
-        <v>-0.0557622848368311</v>
+        <v>0.04735640278761366</v>
       </c>
       <c r="AZ72">
         <v>0.04735640278761366</v>
       </c>
-      <c r="BA72">
-        <v>0.04735640278761366</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.9334965387231479</v>
-      </c>
-      <c r="AL73">
-        <v>0.9547665924890019</v>
-      </c>
-      <c r="AM73">
-        <v>0.8362389676474546</v>
-      </c>
-      <c r="AN73">
-        <v>0.8403075110951148</v>
-      </c>
-      <c r="AO73">
-        <v>0.8664981370430588</v>
-      </c>
       <c r="AP73">
-        <v>0.7810476782081885</v>
+        <v>0.7597464265003926</v>
       </c>
       <c r="AQ73">
-        <v>0.7709740111926431</v>
+        <v>0.713900631466423</v>
       </c>
       <c r="AR73">
-        <v>0.7617219747109907</v>
+        <v>0.6862042455396169</v>
       </c>
       <c r="AS73">
-        <v>0.9525072717049454</v>
+        <v>0.6510142806173627</v>
       </c>
       <c r="AT73">
-        <v>1.048570582566526</v>
+        <v>0.6258749623289594</v>
       </c>
       <c r="AU73">
-        <v>1.049405937979557</v>
+        <v>0.6163196919625321</v>
       </c>
       <c r="AV73">
-        <v>0.4292059143450331</v>
+        <v>0.6059076122013378</v>
       </c>
       <c r="AW73">
-        <v>0.6549793445792602</v>
+        <v>0.5716051232715649</v>
       </c>
       <c r="AX73">
-        <v>0.6227962260762183</v>
+        <v>0.6443531391633676</v>
       </c>
       <c r="AY73">
-        <v>0.02869310752133458</v>
+        <v>0.8127993701254694</v>
       </c>
       <c r="AZ73">
-        <v>0.2484998592622532</v>
-      </c>
-      <c r="BA73">
         <v>0.2461857363876589</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.9335181753081802</v>
-      </c>
-      <c r="AL74">
-        <v>0.9548543998905101</v>
-      </c>
-      <c r="AM74">
-        <v>0.8361347193932701</v>
-      </c>
-      <c r="AN74">
-        <v>0.8402242429142018</v>
-      </c>
-      <c r="AO74">
-        <v>0.840174157376863</v>
-      </c>
-      <c r="AP74">
-        <v>0.7724089590441787</v>
-      </c>
       <c r="AQ74">
-        <v>0.7579371345476418</v>
+        <v>0.7143650309583888</v>
       </c>
       <c r="AR74">
-        <v>0.7359104613128549</v>
+        <v>0.6859959446711316</v>
       </c>
       <c r="AS74">
-        <v>0.9525839854089355</v>
+        <v>0.6548160874444696</v>
       </c>
       <c r="AT74">
-        <v>1.048580034201876</v>
+        <v>0.6337802719761617</v>
       </c>
       <c r="AU74">
-        <v>1.049415654268572</v>
+        <v>0.6189814578748403</v>
       </c>
       <c r="AV74">
-        <v>0.4296829547481167</v>
+        <v>0.6150048784989997</v>
       </c>
       <c r="AW74">
-        <v>0.72440846069955</v>
+        <v>0.6187749027357755</v>
       </c>
       <c r="AX74">
-        <v>0.620532056680716</v>
+        <v>0.5508946402292741</v>
       </c>
       <c r="AY74">
-        <v>0.02882787556931987</v>
+        <v>0.5908038114645416</v>
       </c>
       <c r="AZ74">
-        <v>0.1306996272112997</v>
-      </c>
-      <c r="BA74">
-        <v>0.1304982336044702</v>
+        <v>0.7155515675358848</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.9334433184435702</v>
-      </c>
-      <c r="AL75">
-        <v>0.9547256684876992</v>
-      </c>
-      <c r="AM75">
-        <v>0.836368707512025</v>
-      </c>
-      <c r="AN75">
-        <v>0.8404409005316062</v>
-      </c>
-      <c r="AO75">
-        <v>0.8438340694171078</v>
-      </c>
-      <c r="AP75">
-        <v>0.7733355928892826</v>
-      </c>
-      <c r="AQ75">
-        <v>0.7604621336096957</v>
-      </c>
       <c r="AR75">
-        <v>0.7410846086182841</v>
+        <v>0.6861095053364824</v>
       </c>
       <c r="AS75">
-        <v>0.5596569785067014</v>
+        <v>0.6524471331515191</v>
       </c>
       <c r="AT75">
-        <v>0.499435434865415</v>
+        <v>0.6341287329435861</v>
       </c>
       <c r="AU75">
-        <v>0.4505537477936833</v>
+        <v>0.6202025115142807</v>
       </c>
       <c r="AV75">
-        <v>0.6984840427544543</v>
+        <v>0.6021522398595516</v>
       </c>
       <c r="AW75">
-        <v>0.7225176544849035</v>
+        <v>0.6094785101390714</v>
       </c>
       <c r="AX75">
-        <v>0.5431897180081506</v>
+        <v>0.606702573302483</v>
       </c>
       <c r="AY75">
-        <v>0.06300708450208958</v>
+        <v>0.5265856157865139</v>
       </c>
       <c r="AZ75">
-        <v>0.1331592842769993</v>
-      </c>
-      <c r="BA75">
-        <v>0.1339413531246123</v>
+        <v>0.5537946014963545</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.933463409902017</v>
-      </c>
-      <c r="AL76">
-        <v>0.9547480130970387</v>
-      </c>
-      <c r="AM76">
-        <v>0.8363130950951783</v>
-      </c>
-      <c r="AN76">
-        <v>0.8403858536529916</v>
-      </c>
-      <c r="AO76">
-        <v>0.8479397490756779</v>
-      </c>
-      <c r="AP76">
-        <v>0.7748084097911898</v>
-      </c>
-      <c r="AQ76">
-        <v>0.7621936553369903</v>
-      </c>
-      <c r="AR76">
-        <v>0.7440944631216355</v>
-      </c>
       <c r="AS76">
-        <v>0.6740129516192974</v>
+        <v>0.652454623606965</v>
       </c>
       <c r="AT76">
-        <v>0.655548134466339</v>
+        <v>0.6326455475335289</v>
       </c>
       <c r="AU76">
-        <v>0.6165675426493965</v>
+        <v>0.6194039830587157</v>
       </c>
       <c r="AV76">
-        <v>0.6231615516980503</v>
+        <v>0.6041744062590156</v>
       </c>
       <c r="AW76">
-        <v>0.6931904332439558</v>
+        <v>0.6040613220450073</v>
       </c>
       <c r="AX76">
-        <v>0.5224186311050261</v>
+        <v>0.6069057863112702</v>
       </c>
       <c r="AY76">
-        <v>0.0619816864858791</v>
+        <v>0.5803384202797112</v>
       </c>
       <c r="AZ76">
-        <v>0.1336723976959462</v>
-      </c>
-      <c r="BA76">
-        <v>0.1340385550214762</v>
+        <v>0.5223133410258936</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.8458422872914655</v>
-      </c>
-      <c r="AP77">
-        <v>0.7741466065115215</v>
-      </c>
-      <c r="AQ77">
-        <v>0.7612104665066971</v>
-      </c>
-      <c r="AR77">
-        <v>0.7423590305805411</v>
-      </c>
-      <c r="AS77">
-        <v>0.7110395949466208</v>
-      </c>
       <c r="AT77">
-        <v>0.7059077361905748</v>
+        <v>0.6329985378246834</v>
       </c>
       <c r="AU77">
-        <v>0.6710714426710078</v>
+        <v>0.6194150751812235</v>
       </c>
       <c r="AV77">
-        <v>0.5978806543337131</v>
+        <v>0.6058050318711035</v>
       </c>
       <c r="AW77">
-        <v>0.6245091109453114</v>
+        <v>0.6071349903189351</v>
       </c>
       <c r="AX77">
-        <v>0.4977709620334281</v>
+        <v>0.5975201031968774</v>
       </c>
       <c r="AY77">
-        <v>0.09621262140491638</v>
+        <v>0.5761307462749694</v>
       </c>
       <c r="AZ77">
-        <v>0.1337947716483825</v>
-      </c>
-      <c r="BA77">
-        <v>0.1341612659972071</v>
+        <v>0.557231599650555</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.8457069957557346</v>
-      </c>
-      <c r="AP78">
-        <v>0.7740569570705019</v>
-      </c>
-      <c r="AQ78">
-        <v>0.7611694864221679</v>
-      </c>
-      <c r="AR78">
-        <v>0.7423247304637601</v>
-      </c>
-      <c r="AS78">
-        <v>0.6797987673842972</v>
-      </c>
-      <c r="AT78">
-        <v>0.6646580871780963</v>
-      </c>
       <c r="AU78">
-        <v>0.6280946197127841</v>
+        <v>0.6195497982595901</v>
       </c>
       <c r="AV78">
-        <v>0.6179491196023535</v>
+        <v>0.6050065086346914</v>
       </c>
       <c r="AW78">
-        <v>0.5560624917002883</v>
+        <v>0.6072020194958886</v>
       </c>
       <c r="AX78">
-        <v>0.4980128290566626</v>
+        <v>0.6000795160118256</v>
       </c>
       <c r="AY78">
-        <v>0.09640850212197449</v>
+        <v>0.5685120661141388</v>
       </c>
       <c r="AZ78">
-        <v>0.1339172585360586</v>
-      </c>
-      <c r="BA78">
-        <v>0.1342840893205448</v>
+        <v>0.5527017002920707</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.8461753663614846</v>
-      </c>
-      <c r="AP79">
-        <v>0.77422126504724</v>
-      </c>
-      <c r="AQ79">
-        <v>0.7613675807512734</v>
-      </c>
-      <c r="AR79">
-        <v>0.7426340052490581</v>
-      </c>
-      <c r="AS79">
-        <v>0.6822663333022223</v>
-      </c>
-      <c r="AT79">
-        <v>0.6676965887871709</v>
-      </c>
-      <c r="AU79">
-        <v>0.6308594631217832</v>
-      </c>
       <c r="AV79">
-        <v>0.6166923509179055</v>
+        <v>0.604950354905465</v>
       </c>
       <c r="AW79">
-        <v>0.4887213026143831</v>
+        <v>0.6066628499406872</v>
       </c>
       <c r="AX79">
-        <v>0.4911663409797928</v>
+        <v>0.6009413424192929</v>
       </c>
       <c r="AY79">
-        <v>0.56246391071347</v>
+        <v>0.5712794830471273</v>
       </c>
       <c r="AZ79">
-        <v>0.5656351692979282</v>
-      </c>
-      <c r="BA79">
-        <v>0.2265277852829399</v>
+        <v>0.5482890821087774</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.8460477382798905</v>
-      </c>
-      <c r="AP80">
-        <v>0.7741869778664343</v>
-      </c>
-      <c r="AQ80">
-        <v>0.7613175473650861</v>
-      </c>
-      <c r="AR80">
-        <v>0.7425534151098201</v>
-      </c>
-      <c r="AS80">
-        <v>0.6871384892386179</v>
-      </c>
-      <c r="AT80">
-        <v>0.6739493155577211</v>
-      </c>
-      <c r="AU80">
-        <v>0.6373071585475036</v>
-      </c>
-      <c r="AV80">
-        <v>0.6135826028298471</v>
-      </c>
       <c r="AW80">
-        <v>0.5214377899064822</v>
+        <v>0.6068006945325247</v>
       </c>
       <c r="AX80">
-        <v>0.4931576833965659</v>
+        <v>0.6002753461817758</v>
       </c>
       <c r="AY80">
-        <v>0.4273758316645447</v>
+        <v>0.5717662924659231</v>
       </c>
       <c r="AZ80">
-        <v>0.4394181671090272</v>
-      </c>
-      <c r="BA80">
-        <v>0.2256805165144868</v>
+        <v>0.5502412665224714</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.6852787865584449</v>
-      </c>
-      <c r="AT81">
-        <v>0.6716475377456184</v>
-      </c>
-      <c r="AU81">
-        <v>0.6350556287882769</v>
-      </c>
-      <c r="AV81">
-        <v>0.6146698286125245</v>
-      </c>
-      <c r="AW81">
-        <v>0.5241926204916808</v>
-      </c>
       <c r="AX81">
-        <v>0.4938367709655154</v>
+        <v>0.6003152960836162</v>
       </c>
       <c r="AY81">
-        <v>0.3838714427115366</v>
+        <v>0.5711819045061052</v>
       </c>
       <c r="AZ81">
-        <v>0.3986641955344183</v>
-      </c>
-      <c r="BA81">
-        <v>0.2945183797551323</v>
+        <v>0.5504181726086977</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.6849482438411731</v>
-      </c>
-      <c r="AT82">
-        <v>0.6712231598883549</v>
-      </c>
-      <c r="AU82">
-        <v>0.6345974730523889</v>
-      </c>
-      <c r="AV82">
-        <v>0.6149018910757429</v>
-      </c>
-      <c r="AW82">
-        <v>0.5173079446400928</v>
-      </c>
-      <c r="AX82">
-        <v>0.4932650211210025</v>
-      </c>
       <c r="AY82">
-        <v>0.4204346143963756</v>
+        <v>0.5712621251898489</v>
       </c>
       <c r="AZ82">
-        <v>0.4332781971819603</v>
-      </c>
-      <c r="BA82">
-        <v>0.2947120273256303</v>
+        <v>0.5500527797280603</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.685377239964061</v>
-      </c>
-      <c r="AT83">
-        <v>0.6717409153620282</v>
-      </c>
-      <c r="AU83">
-        <v>0.6351024276634355</v>
-      </c>
-      <c r="AV83">
-        <v>0.6146494030891533</v>
-      </c>
-      <c r="AW83">
-        <v>0.5188446915463615</v>
-      </c>
-      <c r="AX83">
-        <v>0.4933089669070061</v>
-      </c>
-      <c r="AY83">
-        <v>0.4175544118399169</v>
-      </c>
       <c r="AZ83">
-        <v>0.4304901832836909</v>
-      </c>
-      <c r="BA83">
-        <v>0.3738978513387584</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.6853115205861537</v>
-      </c>
-      <c r="AT84">
-        <v>0.6716669396609839</v>
-      </c>
-      <c r="AU84">
-        <v>0.635039351827234</v>
-      </c>
-      <c r="AV84">
-        <v>0.6146800495496324</v>
-      </c>
-      <c r="AW84">
-        <v>0.5196640390371866</v>
-      </c>
-      <c r="AX84">
-        <v>0.4934020666563487</v>
-      </c>
-      <c r="AY84">
-        <v>0.4119049315039534</v>
-      </c>
-      <c r="AZ84">
-        <v>0.4250795072751566</v>
-      </c>
-      <c r="BA84">
-        <v>0.3496128595915581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.5191354668426985</v>
-      </c>
-      <c r="AX85">
-        <v>0.4933662168729793</v>
-      </c>
-      <c r="AY85">
-        <v>0.4140528099966573</v>
-      </c>
-      <c r="AZ85">
-        <v>0.427162545016896</v>
-      </c>
-      <c r="BA85">
-        <v>0.3417330315375999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.5191407607889581</v>
-      </c>
-      <c r="AX86">
-        <v>0.4933595912041491</v>
-      </c>
-      <c r="AY86">
-        <v>0.4144322761725602</v>
-      </c>
-      <c r="AZ86">
-        <v>0.427526813001268</v>
-      </c>
-      <c r="BA86">
-        <v>0.3488431296159935</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.5192371798719495</v>
-      </c>
-      <c r="AX87">
-        <v>0.4933682188374225</v>
-      </c>
-      <c r="AY87">
-        <v>0.4139414103581066</v>
-      </c>
-      <c r="AZ87">
-        <v>0.427045681308419</v>
-      </c>
-      <c r="BA87">
-        <v>0.3481900614698377</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.5192075237963643</v>
-      </c>
-      <c r="AX88">
-        <v>0.49336688318101</v>
-      </c>
-      <c r="AY88">
-        <v>0.4140163588067651</v>
-      </c>
-      <c r="AZ88">
-        <v>0.4271208035180566</v>
-      </c>
-      <c r="BA88">
-        <v>0.3470148002308423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.3475009943104388</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.3475794359757324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.3474613764830119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.3474823553338591</v>
+        <v>0.550124915475968</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>0.1450831793477922</v>
       </c>
       <c r="AG64">
-        <v>7.96955251685678</v>
+        <v>-6.396046400325742</v>
       </c>
       <c r="AH64">
         <v>9.059011788180499</v>
@@ -9166,10 +9166,10 @@
         <v>0.4982076390980224</v>
       </c>
       <c r="AG65">
-        <v>-3.845794628264701</v>
+        <v>-5.766215543812082</v>
       </c>
       <c r="AH65">
-        <v>2.117788110998191</v>
+        <v>-4.287774961580356</v>
       </c>
       <c r="AI65">
         <v>3.706510317809929</v>
@@ -9255,13 +9255,13 @@
         <v>0.5393113703206293</v>
       </c>
       <c r="AG66">
-        <v>2.506534318102371</v>
+        <v>-3.515613508106303</v>
       </c>
       <c r="AH66">
-        <v>0.4364523286311628</v>
+        <v>3.010301665632215</v>
       </c>
       <c r="AI66">
-        <v>-0.9861240056009706</v>
+        <v>-0.005251054067139105</v>
       </c>
       <c r="AJ66">
         <v>3.812938874122935</v>
@@ -9341,16 +9341,16 @@
         <v>0.6164332143553406</v>
       </c>
       <c r="AG67">
-        <v>-0.6828749128889391</v>
+        <v>-2.545363797281564</v>
       </c>
       <c r="AH67">
-        <v>0.6475040701138393</v>
+        <v>-0.9181995509169492</v>
       </c>
       <c r="AI67">
-        <v>0.7342813111631378</v>
+        <v>0.4830283531380689</v>
       </c>
       <c r="AJ67">
-        <v>2.876944405321424</v>
+        <v>0.5961525090010259</v>
       </c>
       <c r="AK67">
         <v>2.06422287650885</v>
@@ -9424,19 +9424,19 @@
         <v>0.6364727569980979</v>
       </c>
       <c r="AG68">
-        <v>1.005872098389955</v>
+        <v>-1.712760590900735</v>
       </c>
       <c r="AH68">
-        <v>0.662860782334763</v>
+        <v>1.220370687016537</v>
       </c>
       <c r="AI68">
-        <v>0.874995098467011</v>
+        <v>0.7287571731359753</v>
       </c>
       <c r="AJ68">
-        <v>0.5745497961884141</v>
+        <v>0.9687723131431737</v>
       </c>
       <c r="AK68">
-        <v>0.4364757668776207</v>
+        <v>0.7113308920122178</v>
       </c>
       <c r="AL68">
         <v>-0.5616043219123981</v>
@@ -9504,22 +9504,22 @@
         <v>0.6550078456410656</v>
       </c>
       <c r="AG69">
-        <v>0.1479204370354341</v>
+        <v>-1.199476556686591</v>
       </c>
       <c r="AH69">
-        <v>0.6585124153175819</v>
+        <v>0.06552153830939075</v>
       </c>
       <c r="AI69">
-        <v>0.7518929710010719</v>
+        <v>0.6867386361564709</v>
       </c>
       <c r="AJ69">
-        <v>1.024699970419289</v>
+        <v>0.845397975296544</v>
       </c>
       <c r="AK69">
-        <v>1.041194553472335</v>
+        <v>1.027027961330665</v>
       </c>
       <c r="AL69">
-        <v>0.6542354095451515</v>
+        <v>1.166215952594906</v>
       </c>
       <c r="AM69">
         <v>5.081974971976663</v>
@@ -9581,25 +9581,25 @@
         <v>0.6618622963796924</v>
       </c>
       <c r="AG70">
-        <v>0.5980259729270256</v>
+        <v>-0.8339616971033534</v>
       </c>
       <c r="AH70">
-        <v>0.6585121736808095</v>
+        <v>0.6927557408331804</v>
       </c>
       <c r="AI70">
-        <v>0.7543029313571837</v>
+        <v>0.670773833643874</v>
       </c>
       <c r="AJ70">
-        <v>1.024744530715197</v>
+        <v>0.8686448769137544</v>
       </c>
       <c r="AK70">
-        <v>0.9606552776704878</v>
+        <v>1.013287578447982</v>
       </c>
       <c r="AL70">
-        <v>1.068415536475473</v>
+        <v>0.9393855095694837</v>
       </c>
       <c r="AM70">
-        <v>-1.358640149334988</v>
+        <v>0.4804442909032954</v>
       </c>
       <c r="AN70">
         <v>0.9282314708180905</v>
@@ -9655,28 +9655,28 @@
         <v>0.6666286380403513</v>
       </c>
       <c r="AG71">
-        <v>0.3677164393788694</v>
+        <v>-0.5903435966646547</v>
       </c>
       <c r="AH71">
-        <v>0.6585834768959139</v>
+        <v>0.3534889237476079</v>
       </c>
       <c r="AI71">
-        <v>0.7619546169496175</v>
+        <v>0.6742276823412219</v>
       </c>
       <c r="AJ71">
-        <v>1.008788064868321</v>
+        <v>0.8629131507160639</v>
       </c>
       <c r="AK71">
-        <v>0.9688608439855991</v>
+        <v>1.0056229997433</v>
       </c>
       <c r="AL71">
-        <v>0.9664319756539007</v>
+        <v>0.94934355711945</v>
       </c>
       <c r="AM71">
-        <v>1.117171974280011</v>
+        <v>1.081081883697927</v>
       </c>
       <c r="AN71">
-        <v>1.767346889326234</v>
+        <v>0.8285839644717098</v>
       </c>
       <c r="AO71">
         <v>1.594077990749781</v>
@@ -9726,31 +9726,31 @@
         <v>0.6687325395505883</v>
       </c>
       <c r="AG72">
-        <v>0.4878725507820408</v>
+        <v>-0.4230700930588213</v>
       </c>
       <c r="AH72">
-        <v>0.6585793564465525</v>
+        <v>0.537539430627847</v>
       </c>
       <c r="AI72">
-        <v>0.7610911270757403</v>
+        <v>0.6752422636903352</v>
       </c>
       <c r="AJ72">
-        <v>1.011676376129711</v>
+        <v>0.8641440420794432</v>
       </c>
       <c r="AK72">
-        <v>0.968147851033568</v>
+        <v>1.007455437933515</v>
       </c>
       <c r="AL72">
-        <v>0.9670774328376538</v>
+        <v>0.9511055873045539</v>
       </c>
       <c r="AM72">
-        <v>1.028274120644365</v>
+        <v>1.069651347979043</v>
       </c>
       <c r="AN72">
-        <v>0.7401839744354588</v>
+        <v>0.9915097036955562</v>
       </c>
       <c r="AO72">
-        <v>0.1973819540654631</v>
+        <v>0.7662967773003616</v>
       </c>
       <c r="AP72">
         <v>2.351141586996604</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.4261251821561504</v>
+        <v>-0.3097556835968031</v>
       </c>
       <c r="AH73">
-        <v>0.658578425807309</v>
+        <v>0.4379041982856289</v>
       </c>
       <c r="AI73">
-        <v>0.7606816797812164</v>
+        <v>0.6749676730510745</v>
       </c>
       <c r="AJ73">
-        <v>1.011718593973082</v>
+        <v>0.8638609108340006</v>
       </c>
       <c r="AK73">
-        <v>0.9682019574424432</v>
+        <v>1.007369628770358</v>
       </c>
       <c r="AL73">
-        <v>0.9704802139098364</v>
+        <v>0.95068767324883</v>
       </c>
       <c r="AM73">
-        <v>0.9327676281041085</v>
+        <v>1.061103869810445</v>
       </c>
       <c r="AN73">
-        <v>0.9035162578637541</v>
+        <v>0.9746735230674046</v>
       </c>
       <c r="AO73">
-        <v>0.9761274720733345</v>
+        <v>0.8875014750268306</v>
       </c>
       <c r="AP73">
-        <v>-2.016521230865749</v>
+        <v>0.5864615044161667</v>
       </c>
       <c r="AQ73">
         <v>-1.338086018914467</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.4582315859750936</v>
-      </c>
       <c r="AH74">
-        <v>0.6585785471911683</v>
+        <v>0.4919233262031163</v>
       </c>
       <c r="AI74">
-        <v>0.7607748751955965</v>
+        <v>0.6749049181680009</v>
       </c>
       <c r="AJ74">
-        <v>1.011608617721322</v>
+        <v>0.8639238120914912</v>
       </c>
       <c r="AK74">
-        <v>0.9681984383579079</v>
+        <v>1.007326238581604</v>
       </c>
       <c r="AL74">
-        <v>0.9699627117755756</v>
+        <v>0.9507267234796544</v>
       </c>
       <c r="AM74">
-        <v>0.951031046299873</v>
+        <v>1.062580487829708</v>
       </c>
       <c r="AN74">
-        <v>0.9009612042503401</v>
+        <v>0.9692226833181444</v>
       </c>
       <c r="AO74">
-        <v>0.8704293251213148</v>
+        <v>0.8873260221515663</v>
       </c>
       <c r="AP74">
-        <v>1.364234471612537</v>
+        <v>0.9328623304206221</v>
       </c>
       <c r="AQ74">
-        <v>-1.429923541452922</v>
+        <v>1.235367727493185</v>
       </c>
       <c r="AR74">
         <v>-0.9048896879718455</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.6585785554272805</v>
-      </c>
       <c r="AI75">
-        <v>0.7607924290461164</v>
+        <v>0.6749261889006333</v>
       </c>
       <c r="AJ75">
-        <v>1.011627039881634</v>
+        <v>0.8639095918813251</v>
       </c>
       <c r="AK75">
-        <v>0.968198616982929</v>
+        <v>1.007336870385292</v>
       </c>
       <c r="AL75">
-        <v>0.9699213765300418</v>
+        <v>0.9507267637973431</v>
       </c>
       <c r="AM75">
-        <v>0.9524857625569013</v>
+        <v>1.062505150703477</v>
       </c>
       <c r="AN75">
-        <v>0.8971426715439712</v>
+        <v>0.9707362022428666</v>
       </c>
       <c r="AO75">
-        <v>0.867288107778394</v>
+        <v>0.884105814608442</v>
       </c>
       <c r="AP75">
-        <v>0.8861609477087481</v>
+        <v>0.9148124994577282</v>
       </c>
       <c r="AQ75">
-        <v>1.299601161681465</v>
+        <v>0.8744061538210542</v>
       </c>
       <c r="AR75">
-        <v>0.1801827438520291</v>
+        <v>1.256708708191798</v>
       </c>
       <c r="AS75">
         <v>-0.008074312324168886</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.760784839885658</v>
-      </c>
       <c r="AJ76">
-        <v>1.011627599782208</v>
+        <v>0.8639127785376908</v>
       </c>
       <c r="AK76">
-        <v>0.9681986129376674</v>
+        <v>1.007336337783332</v>
       </c>
       <c r="AL76">
-        <v>0.969945137820008</v>
+        <v>0.9507261887337456</v>
       </c>
       <c r="AM76">
-        <v>0.9514640350237676</v>
+        <v>1.062491218549141</v>
       </c>
       <c r="AN76">
-        <v>0.8978985472014529</v>
+        <v>0.9707929893366795</v>
       </c>
       <c r="AO76">
-        <v>0.8710189489906149</v>
+        <v>0.8847053768935401</v>
       </c>
       <c r="AP76">
-        <v>0.8243990571732726</v>
+        <v>0.9088049571870136</v>
       </c>
       <c r="AQ76">
-        <v>0.7848897864168425</v>
+        <v>0.8330066259463382</v>
       </c>
       <c r="AR76">
-        <v>0.930408540399136</v>
+        <v>0.7905433809392088</v>
       </c>
       <c r="AS76">
-        <v>0.6692453970872521</v>
+        <v>0.9627365691316523</v>
       </c>
       <c r="AT76">
         <v>-1.274764871858835</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>1.011626845698368</v>
-      </c>
       <c r="AK77">
-        <v>0.9681986123863651</v>
+        <v>1.007336092334901</v>
       </c>
       <c r="AL77">
-        <v>0.9699430959674195</v>
+        <v>0.9507262771986729</v>
       </c>
       <c r="AM77">
-        <v>0.9515536303440411</v>
+        <v>1.062494594129635</v>
       </c>
       <c r="AN77">
-        <v>0.8978622243233515</v>
+        <v>0.9707141799930125</v>
       </c>
       <c r="AO77">
-        <v>0.8704071940494097</v>
+        <v>0.8846810392194799</v>
       </c>
       <c r="AP77">
-        <v>0.8592514405390805</v>
+        <v>0.9104465577898081</v>
       </c>
       <c r="AQ77">
-        <v>0.7553523266421537</v>
+        <v>0.8571681263776965</v>
       </c>
       <c r="AR77">
-        <v>0.7483331123613239</v>
+        <v>0.7712718743274624</v>
       </c>
       <c r="AS77">
-        <v>0.7591568836882077</v>
+        <v>0.7332748393606526</v>
       </c>
       <c r="AT77">
-        <v>-1.33243152085096</v>
+        <v>1.013175764704623</v>
       </c>
       <c r="AU77">
         <v>-1.68178591590852</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.9681986124957229</v>
-      </c>
       <c r="AL78">
-        <v>0.9699425785052992</v>
+        <v>0.950726271875913</v>
       </c>
       <c r="AM78">
-        <v>0.9515850923079329</v>
+        <v>1.062494326110279</v>
       </c>
       <c r="AN78">
-        <v>0.8978489727229767</v>
+        <v>0.9707219193608526</v>
       </c>
       <c r="AO78">
-        <v>0.8704120565034815</v>
+        <v>0.8846694453047066</v>
       </c>
       <c r="AP78">
-        <v>0.855106490571973</v>
+        <v>0.9102967044024609</v>
       </c>
       <c r="AQ78">
-        <v>0.784993798223779</v>
+        <v>0.8541734048667888</v>
       </c>
       <c r="AR78">
-        <v>0.7495558047558394</v>
+        <v>0.7972698689694844</v>
       </c>
       <c r="AS78">
-        <v>0.7135713519324816</v>
+        <v>0.7333619642360021</v>
       </c>
       <c r="AT78">
-        <v>0.9927869548252464</v>
+        <v>0.6788169881567481</v>
       </c>
       <c r="AU78">
-        <v>-0.09168777270478756</v>
+        <v>1.025050331332093</v>
       </c>
       <c r="AV78">
         <v>0.6150207087151358</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.9699427238462667</v>
-      </c>
       <c r="AM79">
-        <v>0.9515764239343708</v>
+        <v>1.062494308621918</v>
       </c>
       <c r="AN79">
-        <v>0.8978523152480127</v>
+        <v>0.9707246094615929</v>
       </c>
       <c r="AO79">
-        <v>0.8704292954152785</v>
+        <v>0.8846722401139208</v>
       </c>
       <c r="AP79">
-        <v>0.8543115912409188</v>
+        <v>0.9102805324440786</v>
       </c>
       <c r="AQ79">
-        <v>0.7807364192306426</v>
+        <v>0.8537060836571055</v>
       </c>
       <c r="AR79">
-        <v>0.7570523620952593</v>
+        <v>0.7934595778988142</v>
       </c>
       <c r="AS79">
-        <v>0.7176829122021289</v>
+        <v>0.742809970923799</v>
       </c>
       <c r="AT79">
-        <v>0.6340095231610794</v>
+        <v>0.6603445417923401</v>
       </c>
       <c r="AU79">
-        <v>0.7571769574411817</v>
+        <v>0.6211490890855967</v>
       </c>
       <c r="AV79">
-        <v>0.8481739611978583</v>
+        <v>0.7025840954900182</v>
       </c>
       <c r="AW79">
         <v>0.0262228489182661</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.9515763433062453</v>
-      </c>
       <c r="AN80">
-        <v>0.8978520594064653</v>
+        <v>0.9707238893455471</v>
       </c>
       <c r="AO80">
-        <v>0.8704258935758782</v>
+        <v>0.884672034973206</v>
       </c>
       <c r="AP80">
-        <v>0.8546661406035678</v>
+        <v>0.9102877166910068</v>
       </c>
       <c r="AQ80">
-        <v>0.780162353850798</v>
+        <v>0.8539312408261804</v>
       </c>
       <c r="AR80">
-        <v>0.7556407823176297</v>
+        <v>0.7929002899219812</v>
       </c>
       <c r="AS80">
-        <v>0.718955362947475</v>
+        <v>0.7411542704313682</v>
       </c>
       <c r="AT80">
-        <v>0.6266328908487473</v>
+        <v>0.6742212709900934</v>
       </c>
       <c r="AU80">
-        <v>0.6053776609144222</v>
+        <v>0.6153773352081815</v>
       </c>
       <c r="AV80">
-        <v>0.637761074008814</v>
+        <v>0.6359410336475624</v>
       </c>
       <c r="AW80">
-        <v>-0.2604183589432552</v>
+        <v>0.7522567190936221</v>
       </c>
       <c r="AX80">
         <v>0.1551023335685926</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.8978520179864392</v>
-      </c>
       <c r="AO81">
-        <v>0.8704260247225503</v>
+        <v>0.8846719978671085</v>
       </c>
       <c r="AP81">
-        <v>0.8546317746447674</v>
+        <v>0.9102867845582637</v>
       </c>
       <c r="AQ81">
-        <v>0.7804702293742842</v>
+        <v>0.8539069256608462</v>
       </c>
       <c r="AR81">
-        <v>0.7555790335566729</v>
+        <v>0.7931860377454867</v>
       </c>
       <c r="AS81">
-        <v>0.7185502566905289</v>
+        <v>0.7410541456153231</v>
       </c>
       <c r="AT81">
-        <v>0.6374932038870037</v>
+        <v>0.67251509034182</v>
       </c>
       <c r="AU81">
-        <v>0.6122695162284958</v>
+        <v>0.6262299214208327</v>
       </c>
       <c r="AV81">
-        <v>0.6652548729744032</v>
+        <v>0.6443639921800119</v>
       </c>
       <c r="AW81">
-        <v>0.8184060034377316</v>
+        <v>0.6549325368717508</v>
       </c>
       <c r="AX81">
-        <v>0.3093370292089048</v>
+        <v>0.7621491802373395</v>
       </c>
       <c r="AY81">
         <v>0.547850509038426</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.8704261009120052</v>
-      </c>
       <c r="AP82">
-        <v>0.8546221134008626</v>
+        <v>0.910286766619973</v>
       </c>
       <c r="AQ82">
-        <v>0.7804384848327848</v>
+        <v>0.8539018543338383</v>
       </c>
       <c r="AR82">
-        <v>0.7556500718120115</v>
+        <v>0.7931609178612773</v>
       </c>
       <c r="AS82">
-        <v>0.7185660354446477</v>
+        <v>0.7411399365662992</v>
       </c>
       <c r="AT82">
-        <v>0.6360099696514498</v>
+        <v>0.6723496424251574</v>
       </c>
       <c r="AU82">
-        <v>0.6139809000235247</v>
+        <v>0.6247306118860642</v>
       </c>
       <c r="AV82">
-        <v>0.666310477763811</v>
+        <v>0.6446325641075974</v>
       </c>
       <c r="AW82">
-        <v>0.6517097367584771</v>
+        <v>0.6535128256705018</v>
       </c>
       <c r="AX82">
-        <v>0.7763915202651026</v>
+        <v>0.6961397858537394</v>
       </c>
       <c r="AY82">
-        <v>-0.03180050048325711</v>
+        <v>0.7394425696296705</v>
       </c>
       <c r="AZ82">
         <v>1.074806962785573</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.8546256729482888</v>
-      </c>
       <c r="AQ83">
-        <v>0.7804301501255025</v>
+        <v>0.8539039371486956</v>
       </c>
       <c r="AR83">
-        <v>0.7556398042558892</v>
+        <v>0.7931517151269136</v>
       </c>
       <c r="AS83">
-        <v>0.718581011191583</v>
+        <v>0.7411290641500718</v>
       </c>
       <c r="AT83">
-        <v>0.6359456850104356</v>
+        <v>0.6724322695169255</v>
       </c>
       <c r="AU83">
-        <v>0.6136089787502794</v>
+        <v>0.6246893065991866</v>
       </c>
       <c r="AV83">
-        <v>0.6654321588620311</v>
+        <v>0.6443881070363247</v>
       </c>
       <c r="AW83">
-        <v>0.6516020085797197</v>
+        <v>0.6560208972794305</v>
       </c>
       <c r="AX83">
-        <v>0.6937731559325442</v>
+        <v>0.6873857155348322</v>
       </c>
       <c r="AY83">
-        <v>0.8173876857776884</v>
+        <v>0.7089812840466063</v>
       </c>
       <c r="AZ83">
-        <v>0.04735640278761366</v>
+        <v>0.6617279941233696</v>
       </c>
       <c r="BA83">
         <v>1.642262942687253</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.7804332166438319</v>
-      </c>
       <c r="AR84">
-        <v>0.7556386552446533</v>
+        <v>0.7931546045247173</v>
       </c>
       <c r="AS84">
-        <v>0.7185776733762158</v>
+        <v>0.7411274272255535</v>
       </c>
       <c r="AT84">
-        <v>0.6359958192370796</v>
+        <v>0.6724239033015941</v>
       </c>
       <c r="AU84">
-        <v>0.6136324488915694</v>
+        <v>0.6247325998698823</v>
       </c>
       <c r="AV84">
-        <v>0.6655447978050266</v>
+        <v>0.6444202660863473</v>
       </c>
       <c r="AW84">
-        <v>0.655787055288072</v>
+        <v>0.655652317120789</v>
       </c>
       <c r="AX84">
-        <v>0.6913949319117496</v>
+        <v>0.6909590730111044</v>
       </c>
       <c r="AY84">
-        <v>0.6965980248170183</v>
+        <v>0.7074823940546657</v>
       </c>
       <c r="AZ84">
-        <v>0.7345880463239913</v>
+        <v>0.663227702901074</v>
       </c>
       <c r="BA84">
-        <v>0.2461857363876589</v>
+        <v>0.4948800926981688</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.7556392989063551</v>
-      </c>
       <c r="AS85">
-        <v>0.7185776064316092</v>
+        <v>0.7411281618529967</v>
       </c>
       <c r="AT85">
-        <v>0.63598979102246</v>
+        <v>0.672422620539656</v>
       </c>
       <c r="AU85">
-        <v>0.61363568489251</v>
+        <v>0.6247270704709175</v>
       </c>
       <c r="AV85">
-        <v>0.6655495430512921</v>
+        <v>0.6444210519184407</v>
       </c>
       <c r="AW85">
-        <v>0.6551152887107246</v>
+        <v>0.6556526000102457</v>
       </c>
       <c r="AX85">
-        <v>0.6946286197582078</v>
+        <v>0.6906539748154205</v>
       </c>
       <c r="AY85">
-        <v>0.6879823303891742</v>
+        <v>0.7087715895365299</v>
       </c>
       <c r="AZ85">
-        <v>0.6577924424942361</v>
+        <v>0.6785536543435746</v>
       </c>
       <c r="BA85">
-        <v>0.6907694560231499</v>
+        <v>0.6815702729853874</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.7185777646197286</v>
-      </c>
       <c r="AT86">
-        <v>0.6359893673760445</v>
+        <v>0.6724231039636257</v>
       </c>
       <c r="AU86">
-        <v>0.6136347950713753</v>
+        <v>0.6247268373618196</v>
       </c>
       <c r="AV86">
-        <v>0.665545877690198</v>
+        <v>0.6444201564073324</v>
       </c>
       <c r="AW86">
-        <v>0.6551189171019213</v>
+        <v>0.6556611916430528</v>
       </c>
       <c r="AX86">
-        <v>0.6941750636458871</v>
+        <v>0.6905887110884105</v>
       </c>
       <c r="AY86">
-        <v>0.6934696869916525</v>
+        <v>0.7086091795006542</v>
       </c>
       <c r="AZ86">
-        <v>0.6462116831765145</v>
+        <v>0.6759870634236258</v>
       </c>
       <c r="BA86">
-        <v>0.6756958926719081</v>
+        <v>0.6976967405788622</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.6359895962971932</v>
-      </c>
       <c r="AU87">
-        <v>0.6136348665672169</v>
+        <v>0.6247270092467339</v>
       </c>
       <c r="AV87">
-        <v>0.6655463389665499</v>
+        <v>0.6444202789644708</v>
       </c>
       <c r="AW87">
-        <v>0.655135127639529</v>
+        <v>0.6556598084452399</v>
       </c>
       <c r="AX87">
-        <v>0.6941389881123428</v>
+        <v>0.6906093082694709</v>
       </c>
       <c r="AY87">
-        <v>0.6928530116238765</v>
+        <v>0.7085920413807106</v>
       </c>
       <c r="AZ87">
-        <v>0.6508206276828223</v>
+        <v>0.6758296826757358</v>
       </c>
       <c r="BA87">
-        <v>0.6593565445009232</v>
+        <v>0.687436075401693</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.6136348720792095</v>
-      </c>
       <c r="AV88">
-        <v>0.6655463601682945</v>
+        <v>0.6444202810931231</v>
       </c>
       <c r="AW88">
-        <v>0.6551324244418321</v>
+        <v>0.6556598287358253</v>
       </c>
       <c r="AX88">
-        <v>0.6941605510127725</v>
+        <v>0.6906080280254545</v>
       </c>
       <c r="AY88">
-        <v>0.6927702681924192</v>
+        <v>0.7086004305826284</v>
       </c>
       <c r="AZ88">
-        <v>0.6504707962726708</v>
+        <v>0.6759522093381291</v>
       </c>
       <c r="BA88">
-        <v>0.6627263075656754</v>
+        <v>0.6884635311272305</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.6655463448761939</v>
-      </c>
       <c r="AW89">
-        <v>0.6551324547972388</v>
+        <v>0.6556598578973724</v>
       </c>
       <c r="AX89">
-        <v>0.6941582215647019</v>
+        <v>0.6906075731268313</v>
       </c>
       <c r="AY89">
-        <v>0.692804686119364</v>
+        <v>0.7085996260436945</v>
       </c>
       <c r="AZ89">
-        <v>0.6503659692537679</v>
+        <v>0.6759380748173183</v>
       </c>
       <c r="BA89">
-        <v>0.6628562823600541</v>
+        <v>0.688713183432506</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.6551325174896379</v>
-      </c>
       <c r="AX90">
-        <v>0.6941578659616696</v>
+        <v>0.6906076893449039</v>
       </c>
       <c r="AY90">
-        <v>0.6928017839384326</v>
+        <v>0.7085994727109626</v>
       </c>
       <c r="AZ90">
-        <v>0.6503955257300246</v>
+        <v>0.6759357709358096</v>
       </c>
       <c r="BA90">
-        <v>0.6626916254827613</v>
+        <v>0.6886302903745173</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.6941580049029286</v>
-      </c>
       <c r="AY91">
-        <v>0.6928011054050561</v>
+        <v>0.7085995256089119</v>
       </c>
       <c r="AZ91">
-        <v>0.6503943587808811</v>
+        <v>0.6759366810813729</v>
       </c>
       <c r="BA91">
-        <v>0.662713627148877</v>
+        <v>0.6886337235059803</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.6928013151479059</v>
-      </c>
       <c r="AZ92">
-        <v>0.6503935095619549</v>
+        <v>0.675936618867267</v>
       </c>
       <c r="BA92">
-        <v>0.6627169349346809</v>
+        <v>0.6886365397070199</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.6503936902831722</v>
-      </c>
       <c r="BA93">
-        <v>0.6627154489294894</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.6627155569389676</v>
+        <v>0.6886359372401165</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_IMPORT_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>0.04899821040007168</v>
       </c>
+      <c r="BB2">
+        <v>0.04899821040007168</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>1.885178963001849</v>
       </c>
+      <c r="BB3">
+        <v>1.885178963001849</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>-1.307280175329765</v>
       </c>
+      <c r="BB4">
+        <v>-1.307280175329765</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>2.75267136845396</v>
       </c>
+      <c r="BB5">
+        <v>2.75267136845396</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>-4.471592960313714</v>
       </c>
+      <c r="BB6">
+        <v>-4.471592960313714</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>-4.942495347902479</v>
       </c>
+      <c r="BB7">
+        <v>-4.942495347902479</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>-5.434114574907241</v>
       </c>
+      <c r="BB8">
+        <v>-5.434114574907241</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>4.370618442157621</v>
       </c>
+      <c r="BB9">
+        <v>4.370618442157621</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>-0.9953340506219917</v>
       </c>
+      <c r="BB10">
+        <v>-0.9953340506219917</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>5.692238679293155</v>
       </c>
+      <c r="BB11">
+        <v>5.692238679293155</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>5.484876523251003</v>
       </c>
+      <c r="BB12">
+        <v>5.484876523251003</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>0.1757137213762547</v>
       </c>
+      <c r="BB13">
+        <v>0.1757137213762547</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>1.626538719806248</v>
       </c>
+      <c r="BB14">
+        <v>1.626538719806248</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>2.437334396728659</v>
       </c>
+      <c r="BB15">
+        <v>2.437334396728659</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>1.566144859651857</v>
       </c>
+      <c r="BB16">
+        <v>1.566144859651857</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>1.556824096124856</v>
       </c>
+      <c r="BB17">
+        <v>1.556824096124856</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>0.21169683169569</v>
       </c>
+      <c r="BB18">
+        <v>0.21169683169569</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>0.1582599013804469</v>
       </c>
+      <c r="BB19">
+        <v>0.1582599013804469</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>-0.3253450194449812</v>
       </c>
+      <c r="BB20">
+        <v>-0.3253450194449812</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>-0.15853729477206</v>
       </c>
+      <c r="BB21">
+        <v>-0.15853729477206</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>0.2054976683197225</v>
       </c>
+      <c r="BB22">
+        <v>0.2054976683197225</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>0.9595582875050894</v>
       </c>
+      <c r="BB23">
+        <v>0.9595582875050894</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>1.503966953576466</v>
       </c>
+      <c r="BB24">
+        <v>1.503966953576466</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>1.799837015295822</v>
       </c>
+      <c r="BB25">
+        <v>1.799837015295822</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>0.6518403676065248</v>
       </c>
+      <c r="BB26">
+        <v>0.6518403676065248</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>0.6633823054011998</v>
       </c>
+      <c r="BB27">
+        <v>0.6633823054011998</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>0.923139910942723</v>
       </c>
+      <c r="BB28">
+        <v>0.923139910942723</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>0.3869820931359413</v>
       </c>
+      <c r="BB29">
+        <v>0.3869820931359413</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>2.093916965767463</v>
       </c>
+      <c r="BB30">
+        <v>2.093916965767463</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>1.580888475204972</v>
       </c>
+      <c r="BB31">
+        <v>1.580888475204972</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>0.3008043112709089</v>
       </c>
+      <c r="BB32">
+        <v>0.3008043112709089</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>1.199598313222268</v>
       </c>
+      <c r="BB33">
+        <v>1.199598313222268</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>0.4774400648527148</v>
       </c>
+      <c r="BB34">
+        <v>0.4774400648527148</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>1.507463254996111</v>
       </c>
+      <c r="BB35">
+        <v>1.507463254996111</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>0.2179116434425623</v>
       </c>
+      <c r="BB36">
+        <v>0.2179116434425623</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>0.6120689161334525</v>
       </c>
+      <c r="BB37">
+        <v>0.6120689161334525</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>2.489390679284554</v>
       </c>
+      <c r="BB38">
+        <v>2.489390679284554</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>0.5389418434166515</v>
       </c>
+      <c r="BB39">
+        <v>0.5389418434166515</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>2.40118094791471</v>
       </c>
+      <c r="BB40">
+        <v>2.40118094791471</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>1.043009620608657</v>
       </c>
+      <c r="BB41">
+        <v>1.043009620608657</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>1.830928398766659</v>
       </c>
+      <c r="BB42">
+        <v>1.830928398766659</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>-0.3674870133197601</v>
       </c>
+      <c r="BB43">
+        <v>-0.3674870133197601</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>1.62717758729876</v>
       </c>
+      <c r="BB44">
+        <v>1.62717758729876</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>1.117271732844245</v>
       </c>
+      <c r="BB45">
+        <v>1.117271732844245</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>0.6525147083449099</v>
       </c>
+      <c r="BB46">
+        <v>0.6525147083449099</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>1.4</v>
       </c>
+      <c r="BB47">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>-0.3</v>
       </c>
+      <c r="BB48">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>-0.3</v>
       </c>
+      <c r="BB49">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>0.1</v>
       </c>
+      <c r="BB50">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>-1.138880770453937</v>
       </c>
+      <c r="BB51">
+        <v>-1.138880770453937</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>-16.88491062648744</v>
       </c>
+      <c r="BB52">
+        <v>-16.88491062648744</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>9.224715108933083</v>
       </c>
+      <c r="BB53">
+        <v>9.224715108933083</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>3.283355339827622</v>
       </c>
+      <c r="BB54">
+        <v>3.283355339827622</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>4.432584407022276</v>
       </c>
+      <c r="BB55">
+        <v>4.432584407022276</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>2.509693347214139</v>
       </c>
+      <c r="BB56">
+        <v>2.509693347214139</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>-0.4381048169788073</v>
       </c>
+      <c r="BB57">
+        <v>-0.4381048169788073</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>4.106981763725997</v>
       </c>
+      <c r="BB58">
+        <v>4.106981763725997</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>0.3842995656585515</v>
       </c>
+      <c r="BB59">
+        <v>0.3842995656585515</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>2.277966437795897</v>
       </c>
+      <c r="BB60">
+        <v>2.277966437795897</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>2.507553358214992</v>
       </c>
+      <c r="BB61">
+        <v>2.507553358214992</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>-2.399190900254823</v>
       </c>
+      <c r="BB62">
+        <v>-2.399190900254823</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>-1.115644072253531</v>
       </c>
+      <c r="BB63">
+        <v>-1.115644072253531</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>0.1689348086957096</v>
       </c>
+      <c r="BB64">
+        <v>0.1689348086957096</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>-1.814969742946232</v>
       </c>
+      <c r="BB65">
+        <v>-1.814969742946232</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>-1.586779238813989</v>
       </c>
+      <c r="BB66">
+        <v>-1.586779238813989</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>-0.2996177924633514</v>
       </c>
+      <c r="BB67">
+        <v>-0.2996177924633514</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>2.757652919539751</v>
       </c>
+      <c r="BB68">
+        <v>2.757652919539751</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>-0.08601690538415596</v>
       </c>
+      <c r="BB69">
+        <v>-0.08601690538415596</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>-0.6801011570971838</v>
       </c>
+      <c r="BB70">
+        <v>-0.6801011570971838</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>1.599728869008459</v>
       </c>
+      <c r="BB71">
+        <v>1.538981993999982</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>1.642262942687253</v>
       </c>
+      <c r="BB72">
+        <v>1.68501852020853</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.4948800926981688</v>
       </c>
+      <c r="BB73">
+        <v>0.03331000006224372</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.6815702729853874</v>
       </c>
+      <c r="BB74">
+        <v>0.719473196736553</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.6976967405788622</v>
       </c>
+      <c r="BB75">
+        <v>0.6752544302532623</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.687436075401693</v>
       </c>
+      <c r="BB76">
+        <v>0.6532787989117363</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>0.6884635311272305</v>
       </c>
+      <c r="BB77">
+        <v>0.6588538323071631</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>0.688713183432506</v>
       </c>
+      <c r="BB78">
+        <v>0.6588609317435923</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.6886302903745173</v>
       </c>
+      <c r="BB79">
+        <v>0.6586210043061691</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.6886337235059803</v>
       </c>
+      <c r="BB80">
+        <v>0.6586608941090445</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.6886365397070199</v>
       </c>
+      <c r="BB81">
+        <v>0.6586644859197338</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.6886359372401165</v>
+      </c>
+      <c r="BB82">
+        <v>0.6586621760120679</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.6586624091680092</v>
       </c>
     </row>
   </sheetData>
